--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325088.9337618001</v>
+        <v>324376.669008055</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058547</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,32 +1233,32 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>3.516869431124803</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3.097658594934726</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6303957926863</v>
+        <v>159.6303957926862</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8802695799879</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700851</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294984</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013698</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692372</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>37.98136679428077</v>
+        <v>72.00878260204226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>158.8934622255072</v>
       </c>
     </row>
     <row r="12">
@@ -1449,22 +1449,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>9.376387674824883</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>118.6629392458117</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>92.31268295538214</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44964351050422</v>
+        <v>13.44964351050417</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82929343736549</v>
+        <v>36.82929343736544</v>
       </c>
       <c r="U12" t="n">
-        <v>59.08630782930764</v>
+        <v>59.08630782930758</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50715706586126</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="W12" t="n">
-        <v>188.4860450762372</v>
+        <v>88.56281972747055</v>
       </c>
       <c r="X12" t="n">
-        <v>39.17115058992962</v>
+        <v>39.17115058992957</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.24252228448464</v>
+        <v>45.24252228448458</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28944752386649</v>
+        <v>25.28944752386643</v>
       </c>
       <c r="S13" t="n">
-        <v>57.2967650834555</v>
+        <v>57.29676508345544</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61991340433105</v>
+        <v>45.61991340433099</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5147946356657</v>
+        <v>110.5147946356656</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96725133490892</v>
+        <v>66.96725133490887</v>
       </c>
       <c r="W13" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77769155870155</v>
+        <v>43.77769155870149</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99950896462744</v>
+        <v>38.99950896462738</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>103.1481133961411</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>28.73149300697935</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8802695799879</v>
       </c>
       <c r="I14" t="n">
-        <v>62.87039510700851</v>
+        <v>62.87039510700846</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.74367530294979</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.37664323013693</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.32438889692367</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.37638767482494</v>
+        <v>9.376387674824883</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>188.4860450762372</v>
+        <v>154.504353068498</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82929343736549</v>
+        <v>36.82929343736544</v>
       </c>
       <c r="U15" t="n">
         <v>188.4860450762372</v>
       </c>
       <c r="V15" t="n">
-        <v>75.97038658295746</v>
+        <v>62.50715706586121</v>
       </c>
       <c r="W15" t="n">
-        <v>88.56281972747061</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="X15" t="n">
-        <v>39.17115058992962</v>
+        <v>39.17115058992957</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24252228448464</v>
+        <v>45.24252228448458</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386649</v>
+        <v>25.28944752386643</v>
       </c>
       <c r="S16" t="n">
-        <v>57.2967650834555</v>
+        <v>57.29676508345544</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433105</v>
+        <v>45.61991340433099</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5147946356657</v>
+        <v>110.5147946356656</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490892</v>
+        <v>66.96725133490887</v>
       </c>
       <c r="W16" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870155</v>
+        <v>43.77769155870149</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462744</v>
+        <v>38.99950896462738</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63531193256557</v>
+        <v>76.63531193256517</v>
       </c>
       <c r="C17" t="n">
         <v>52.75356893591066</v>
@@ -1859,7 +1859,7 @@
         <v>121.3863065040498</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426079</v>
+        <v>49.57010498426081</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1926,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>188.4860450762372</v>
       </c>
-      <c r="T18" t="n">
-        <v>46.78069573768354</v>
-      </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>163.0663958930513</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>121.3863065040498</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57010498426079</v>
+        <v>49.57010498426081</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>177.7540591817213</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>44.00009275612791</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2439,28 +2439,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>178.7219527335926</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
+        <v>87.17315924599666</v>
+      </c>
+      <c r="X24" t="n">
         <v>188.4860450762372</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.5992110257044</v>
+        <v>160.5992110257043</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7174680290499</v>
+        <v>136.7174680290498</v>
       </c>
       <c r="D26" t="n">
         <v>124.2841302900983</v>
@@ -2573,7 +2573,7 @@
         <v>133.5340040774</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442052</v>
+        <v>27.52412960442049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754899</v>
+        <v>14.03037772754897</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335739</v>
+        <v>8.978123394335711</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945433</v>
+        <v>36.66251709945431</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3917542570231</v>
+        <v>107.391754257023</v>
       </c>
       <c r="W26" t="n">
         <v>124.4084344736379</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2946849425772</v>
+        <v>146.2946849425771</v>
       </c>
       <c r="Y26" t="n">
         <v>168.7975380663209</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.483027934777509</v>
+        <v>1.483027934777481</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74004232671965</v>
+        <v>50.28077469025703</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16089156327328</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>197.9982572762555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.824885087341642</v>
+        <v>3.824885087341613</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896653</v>
+        <v>9.896256781896625</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086751</v>
+        <v>21.95049958086749</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174307</v>
+        <v>10.27364790174304</v>
       </c>
       <c r="U28" t="n">
-        <v>75.1685291330777</v>
+        <v>75.16852913307767</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232094</v>
+        <v>31.62098583232091</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720636</v>
+        <v>76.82267773720633</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113565</v>
+        <v>8.431426056113537</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039455</v>
+        <v>3.653243462039427</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>124.2841302900983</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9908827095071</v>
+        <v>157.9908827095072</v>
       </c>
       <c r="F29" t="n">
         <v>189.7112202878845</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3502055971889</v>
+        <v>205.350205597189</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5340040773999</v>
+        <v>133.5340040774</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52412960442047</v>
+        <v>27.52412960442051</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754894</v>
+        <v>14.03037772754897</v>
       </c>
       <c r="T29" t="n">
-        <v>8.978123394335691</v>
+        <v>8.978123394335721</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945428</v>
+        <v>36.66251709945431</v>
       </c>
       <c r="V29" t="n">
         <v>107.391754257023</v>
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>86.1282451536041</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>126.2364076793662</v>
+        <v>1.483027934777481</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671959</v>
+        <v>23.74004232671962</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16089156327322</v>
+        <v>27.16089156327325</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21655422488257</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>3.824885087341585</v>
+        <v>3.824885087341613</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.896256781896597</v>
+        <v>9.896256781896625</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086746</v>
+        <v>21.95049958086749</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174301</v>
+        <v>10.27364790174304</v>
       </c>
       <c r="U31" t="n">
-        <v>75.16852913307764</v>
+        <v>75.16852913307767</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232088</v>
+        <v>31.62098583232091</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720631</v>
+        <v>76.82267773720633</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113509</v>
+        <v>8.431426056113537</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039399</v>
+        <v>3.653243462039427</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>159.6893265664838</v>
+        <v>159.6893265664837</v>
       </c>
       <c r="C32" t="n">
-        <v>135.8075835698293</v>
+        <v>135.8075835698292</v>
       </c>
       <c r="D32" t="n">
-        <v>123.3742458308778</v>
+        <v>123.3742458308776</v>
       </c>
       <c r="E32" t="n">
-        <v>157.0809982502866</v>
+        <v>157.0809982502865</v>
       </c>
       <c r="F32" t="n">
-        <v>188.801335828664</v>
+        <v>188.8013358286638</v>
       </c>
       <c r="G32" t="n">
-        <v>204.4403211379684</v>
+        <v>204.4403211379683</v>
       </c>
       <c r="H32" t="n">
-        <v>132.6241196181794</v>
+        <v>132.6241196181793</v>
       </c>
       <c r="I32" t="n">
-        <v>26.61424514519996</v>
+        <v>26.61424514519985</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.12049326832843</v>
+        <v>13.12049326832832</v>
       </c>
       <c r="T32" t="n">
-        <v>8.068238935115176</v>
+        <v>8.068238935115062</v>
       </c>
       <c r="U32" t="n">
-        <v>35.75263264023377</v>
+        <v>35.75263264023366</v>
       </c>
       <c r="V32" t="n">
-        <v>106.4818697978025</v>
+        <v>106.4818697978024</v>
       </c>
       <c r="W32" t="n">
-        <v>123.4985500144174</v>
+        <v>123.4985500144172</v>
       </c>
       <c r="X32" t="n">
-        <v>145.3848004833566</v>
+        <v>145.3848004833565</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.8876536071004</v>
+        <v>167.8876536071002</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755569454</v>
+        <v>0.573143475556832</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2280716788486</v>
+        <v>229.7609224655848</v>
       </c>
       <c r="V33" t="n">
-        <v>26.25100710405272</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628121078</v>
+        <v>2.915000628120964</v>
       </c>
       <c r="Y33" t="n">
-        <v>57.09369780083311</v>
+        <v>8.986372322675976</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164695</v>
+        <v>21.04061512164684</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522506</v>
+        <v>9.363763442522393</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385713</v>
+        <v>74.25864467385702</v>
       </c>
       <c r="V34" t="n">
-        <v>30.71110137310038</v>
+        <v>30.71110137310026</v>
       </c>
       <c r="W34" t="n">
-        <v>75.9127932779858</v>
+        <v>75.91279327798568</v>
       </c>
       <c r="X34" t="n">
-        <v>7.521541596893002</v>
+        <v>7.521541596892888</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.743359002818892</v>
+        <v>2.743359002818778</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>102.0281659433315</v>
+        <v>102.0281659433314</v>
       </c>
       <c r="C35" t="n">
-        <v>78.14642294667698</v>
+        <v>78.14642294667686</v>
       </c>
       <c r="D35" t="n">
-        <v>65.71308520772544</v>
+        <v>65.71308520772533</v>
       </c>
       <c r="E35" t="n">
-        <v>99.41983762713431</v>
+        <v>99.4198376271342</v>
       </c>
       <c r="F35" t="n">
-        <v>131.1401752055116</v>
+        <v>131.1401752055115</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7791605148161</v>
+        <v>146.779160514816</v>
       </c>
       <c r="H35" t="n">
-        <v>74.96295899502712</v>
+        <v>74.96295899502701</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>48.82070917465018</v>
+        <v>48.82070917465006</v>
       </c>
       <c r="W35" t="n">
-        <v>65.83738939126505</v>
+        <v>65.83738939126494</v>
       </c>
       <c r="X35" t="n">
-        <v>87.72363986020429</v>
+        <v>87.72363986020417</v>
       </c>
       <c r="Y35" t="n">
-        <v>110.226492983948</v>
+        <v>110.2264929839479</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>96.69792092279381</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>37.09289765031401</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -3357,13 +3357,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.59748405070482</v>
+        <v>16.5974840507047</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>18.25163265483349</v>
+        <v>18.25163265483337</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.0281659433315</v>
+        <v>102.0281659433314</v>
       </c>
       <c r="C38" t="n">
-        <v>78.14642294667698</v>
+        <v>78.14642294667686</v>
       </c>
       <c r="D38" t="n">
-        <v>65.71308520772544</v>
+        <v>65.71308520772533</v>
       </c>
       <c r="E38" t="n">
-        <v>99.41983762713431</v>
+        <v>99.4198376271342</v>
       </c>
       <c r="F38" t="n">
-        <v>131.1401752055116</v>
+        <v>131.1401752055115</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7791605148161</v>
+        <v>146.779160514816</v>
       </c>
       <c r="H38" t="n">
-        <v>74.96295899502711</v>
+        <v>74.96295899502701</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>48.82070917465018</v>
+        <v>48.82070917465006</v>
       </c>
       <c r="W38" t="n">
-        <v>65.83738939126505</v>
+        <v>65.83738939126494</v>
       </c>
       <c r="X38" t="n">
-        <v>87.72363986020429</v>
+        <v>87.72363986020417</v>
       </c>
       <c r="Y38" t="n">
-        <v>110.226492983948</v>
+        <v>110.2264929839479</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>168.6039774684861</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>2.763696251716744</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.59748405070482</v>
+        <v>16.5974840507047</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>18.25163265483349</v>
+        <v>18.25163265483337</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2280716788486</v>
+        <v>42.18715923384455</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>53.32010323462121</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4065,7 +4065,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,25 +4098,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>142.3021071617627</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>73.82871628869269</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69242462046211</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.410297630181626</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="C9" t="n">
-        <v>3.410297630181626</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="D9" t="n">
-        <v>3.410297630181626</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="E9" t="n">
-        <v>3.410297630181626</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="F9" t="n">
-        <v>3.410297630181626</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G9" t="n">
-        <v>3.410297630181626</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="H9" t="n">
-        <v>3.410297630181626</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="I9" t="n">
-        <v>3.410297630181626</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="J9" t="n">
         <v>0.2813495544899843</v>
@@ -4887,46 +4887,46 @@
         <v>0.2813495544899843</v>
       </c>
       <c r="L9" t="n">
-        <v>3.763050291303539</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="M9" t="n">
-        <v>7.244751028117094</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="N9" t="n">
-        <v>10.72645176493065</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="O9" t="n">
-        <v>14.06747772449921</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.51508435972668</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="R9" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="S9" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="T9" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="U9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="V9" t="n">
-        <v>3.410297630181626</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="W9" t="n">
-        <v>3.410297630181626</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="X9" t="n">
-        <v>3.410297630181626</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.410297630181626</v>
+        <v>7.386136284035041</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>604.0188528056646</v>
+        <v>520.7095895700503</v>
       </c>
       <c r="C11" t="n">
-        <v>430.2171017636061</v>
+        <v>346.9078385279919</v>
       </c>
       <c r="D11" t="n">
-        <v>268.9742777305896</v>
+        <v>185.6650144949755</v>
       </c>
       <c r="E11" t="n">
-        <v>268.9742777305896</v>
+        <v>185.6650144949755</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9742777305896</v>
+        <v>185.6650144949755</v>
       </c>
       <c r="G11" t="n">
-        <v>78.58433320913788</v>
+        <v>185.6650144949755</v>
       </c>
       <c r="H11" t="n">
-        <v>78.58433320913788</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I11" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4202186115222</v>
+        <v>115.4202186115223</v>
       </c>
       <c r="K11" t="n">
-        <v>285.1128385102955</v>
+        <v>267.9050913919197</v>
       </c>
       <c r="L11" t="n">
-        <v>331.8239968493319</v>
+        <v>314.6162497309561</v>
       </c>
       <c r="M11" t="n">
-        <v>412.6751204626772</v>
+        <v>395.4673733443014</v>
       </c>
       <c r="N11" t="n">
-        <v>487.9920637663394</v>
+        <v>470.7843166479635</v>
       </c>
       <c r="O11" t="n">
-        <v>674.5932483918142</v>
+        <v>504.9946117247457</v>
       </c>
       <c r="P11" t="n">
-        <v>674.5932483918142</v>
+        <v>666.4050806852706</v>
       </c>
       <c r="Q11" t="n">
         <v>753.9441803049489</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0313769686359</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="S11" t="n">
-        <v>687.1559797664773</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="T11" t="n">
-        <v>642.3838697695845</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="U11" t="n">
-        <v>604.0188528056646</v>
+        <v>681.2080362624819</v>
       </c>
       <c r="V11" t="n">
-        <v>604.0188528056646</v>
+        <v>681.2080362624819</v>
       </c>
       <c r="W11" t="n">
-        <v>604.0188528056646</v>
+        <v>681.2080362624819</v>
       </c>
       <c r="X11" t="n">
-        <v>604.0188528056646</v>
+        <v>681.2080362624819</v>
       </c>
       <c r="Y11" t="n">
-        <v>604.0188528056646</v>
+        <v>520.7095895700503</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>297.7362921715011</v>
+        <v>271.4174409981588</v>
       </c>
       <c r="C12" t="n">
-        <v>108.3240179044648</v>
+        <v>261.9463423367195</v>
       </c>
       <c r="D12" t="n">
-        <v>108.3240179044648</v>
+        <v>261.9463423367195</v>
       </c>
       <c r="E12" t="n">
-        <v>108.3240179044648</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="F12" t="n">
-        <v>108.3240179044648</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07888360609898</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="H12" t="n">
         <v>15.07888360609898</v>
@@ -5121,49 +5121,49 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K12" t="n">
-        <v>53.03690762936457</v>
+        <v>53.03690762936456</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6322093831025</v>
+        <v>538.6322093831026</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3253369263737</v>
+        <v>670.3253369263738</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9441803049489</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0010596398749</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0010596398749</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4155611444161</v>
+        <v>733.4155611444163</v>
       </c>
       <c r="T12" t="n">
-        <v>696.2142546420267</v>
+        <v>696.214254642027</v>
       </c>
       <c r="U12" t="n">
-        <v>636.5311154205039</v>
+        <v>636.5311154205042</v>
       </c>
       <c r="V12" t="n">
-        <v>573.3925729297349</v>
+        <v>446.1411708990524</v>
       </c>
       <c r="W12" t="n">
-        <v>383.0026284082832</v>
+        <v>356.6837772349407</v>
       </c>
       <c r="X12" t="n">
-        <v>343.4358096305764</v>
+        <v>317.1169584572341</v>
       </c>
       <c r="Y12" t="n">
-        <v>297.7362921715011</v>
+        <v>271.4174409981588</v>
       </c>
     </row>
     <row r="13">
@@ -5173,73 +5173,73 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.59847835882614</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C13" t="n">
-        <v>20.01062178534875</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D13" t="n">
-        <v>52.64014424819072</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E13" t="n">
-        <v>52.64014424819072</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F13" t="n">
-        <v>52.64014424819072</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G13" t="n">
-        <v>52.64014424819072</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H13" t="n">
-        <v>52.64014424819072</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I13" t="n">
-        <v>52.64014424819072</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J13" t="n">
-        <v>52.64014424819072</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K13" t="n">
-        <v>52.64014424819072</v>
+        <v>125.0763513383615</v>
       </c>
       <c r="L13" t="n">
-        <v>52.64014424819072</v>
+        <v>269.6023069443306</v>
       </c>
       <c r="M13" t="n">
-        <v>52.64014424819072</v>
+        <v>269.6023069443306</v>
       </c>
       <c r="N13" t="n">
-        <v>212.6413222765428</v>
+        <v>429.6034849726827</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8936825085033</v>
+        <v>520.7701116317056</v>
       </c>
       <c r="P13" t="n">
-        <v>470.3568865385322</v>
+        <v>520.7701116317056</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.770111631706</v>
+        <v>520.7701116317056</v>
       </c>
       <c r="R13" t="n">
-        <v>495.225215142952</v>
+        <v>495.2252151429517</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3496948566333</v>
+        <v>437.3496948566331</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2689742461979</v>
+        <v>391.2689742461977</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6378685536063</v>
+        <v>279.6378685536061</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9941803365266</v>
+        <v>211.9941803365264</v>
       </c>
       <c r="W13" t="n">
-        <v>98.69221746804746</v>
+        <v>98.69221746804735</v>
       </c>
       <c r="X13" t="n">
-        <v>54.47232700471255</v>
+        <v>54.4723270047125</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07888360609898</v>
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>373.1642912620454</v>
+        <v>451.9939252481328</v>
       </c>
       <c r="C14" t="n">
-        <v>373.1642912620454</v>
+        <v>278.1921742060745</v>
       </c>
       <c r="D14" t="n">
-        <v>373.1642912620454</v>
+        <v>278.1921742060745</v>
       </c>
       <c r="E14" t="n">
-        <v>268.9742777305897</v>
+        <v>278.1921742060745</v>
       </c>
       <c r="F14" t="n">
-        <v>78.58433320913798</v>
+        <v>278.1921742060745</v>
       </c>
       <c r="G14" t="n">
-        <v>78.58433320913798</v>
+        <v>249.1704640980145</v>
       </c>
       <c r="H14" t="n">
-        <v>78.58433320913798</v>
+        <v>78.58433320913784</v>
       </c>
       <c r="I14" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="J14" t="n">
-        <v>98.21247149314632</v>
+        <v>115.4202186115223</v>
       </c>
       <c r="K14" t="n">
-        <v>267.9050913919197</v>
+        <v>115.5142018432271</v>
       </c>
       <c r="L14" t="n">
-        <v>314.616249730956</v>
+        <v>162.2253601822635</v>
       </c>
       <c r="M14" t="n">
-        <v>395.4673733443013</v>
+        <v>243.0764837956088</v>
       </c>
       <c r="N14" t="n">
-        <v>470.7843166479635</v>
+        <v>318.3934270992709</v>
       </c>
       <c r="O14" t="n">
         <v>504.9946117247457</v>
@@ -5300,28 +5300,28 @@
         <v>753.9441803049489</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9441803049489</v>
+        <v>737.031376968636</v>
       </c>
       <c r="S14" t="n">
-        <v>753.9441803049489</v>
+        <v>687.1559797664775</v>
       </c>
       <c r="T14" t="n">
-        <v>753.9441803049489</v>
+        <v>642.3838697695846</v>
       </c>
       <c r="U14" t="n">
-        <v>753.9441803049489</v>
+        <v>642.3838697695846</v>
       </c>
       <c r="V14" t="n">
-        <v>753.9441803049489</v>
+        <v>642.3838697695846</v>
       </c>
       <c r="W14" t="n">
-        <v>753.9441803049489</v>
+        <v>642.3838697695846</v>
       </c>
       <c r="X14" t="n">
-        <v>753.9441803049489</v>
+        <v>642.3838697695846</v>
       </c>
       <c r="Y14" t="n">
-        <v>563.5542357834971</v>
+        <v>451.9939252481328</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.55836996847884</v>
+        <v>24.54998226753825</v>
       </c>
       <c r="C15" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D15" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E15" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F15" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G15" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H15" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I15" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J15" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="K15" t="n">
-        <v>53.03690762936457</v>
+        <v>53.03690762936446</v>
       </c>
       <c r="L15" t="n">
         <v>170.3626975743616</v>
@@ -5370,37 +5370,37 @@
         <v>538.6322093831026</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3253369263738</v>
+        <v>670.3253369263737</v>
       </c>
       <c r="P15" t="n">
-        <v>753.944180304949</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0010596398751</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="R15" t="n">
-        <v>747.0010596398751</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="S15" t="n">
-        <v>556.6111151184233</v>
+        <v>590.936056540382</v>
       </c>
       <c r="T15" t="n">
-        <v>519.409808616034</v>
+        <v>553.7347500379926</v>
       </c>
       <c r="U15" t="n">
-        <v>329.0198640945822</v>
+        <v>363.3448055165409</v>
       </c>
       <c r="V15" t="n">
-        <v>252.2820998693726</v>
+        <v>300.206263025772</v>
       </c>
       <c r="W15" t="n">
-        <v>162.8247062052609</v>
+        <v>109.8163185043202</v>
       </c>
       <c r="X15" t="n">
-        <v>123.2578874275542</v>
+        <v>70.24949972661359</v>
       </c>
       <c r="Y15" t="n">
-        <v>77.55836996847884</v>
+        <v>24.54998226753825</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.59847835882614</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C16" t="n">
-        <v>25.53583718743346</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D16" t="n">
-        <v>58.16535965027543</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E16" t="n">
-        <v>58.16535965027543</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F16" t="n">
-        <v>96.98809246505881</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G16" t="n">
-        <v>106.3346439711884</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H16" t="n">
-        <v>118.5285917637476</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I16" t="n">
-        <v>118.5285917637476</v>
+        <v>28.23396361684055</v>
       </c>
       <c r="J16" t="n">
-        <v>118.5285917637476</v>
+        <v>28.23396361684055</v>
       </c>
       <c r="K16" t="n">
-        <v>118.5285917637476</v>
+        <v>138.2314313491031</v>
       </c>
       <c r="L16" t="n">
-        <v>263.0545473697166</v>
+        <v>282.7573869550722</v>
       </c>
       <c r="M16" t="n">
-        <v>263.0545473697166</v>
+        <v>434.1487214333413</v>
       </c>
       <c r="N16" t="n">
-        <v>263.0545473697166</v>
+        <v>434.1487214333413</v>
       </c>
       <c r="O16" t="n">
-        <v>402.3069076016771</v>
+        <v>434.1487214333413</v>
       </c>
       <c r="P16" t="n">
-        <v>520.770111631706</v>
+        <v>520.7701116317056</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.770111631706</v>
+        <v>520.7701116317056</v>
       </c>
       <c r="R16" t="n">
-        <v>495.225215142952</v>
+        <v>495.2252151429517</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566333</v>
+        <v>437.3496948566331</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461979</v>
+        <v>391.2689742461977</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6378685536063</v>
+        <v>279.6378685536061</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365266</v>
+        <v>211.9941803365264</v>
       </c>
       <c r="W16" t="n">
-        <v>98.69221746804746</v>
+        <v>98.69221746804735</v>
       </c>
       <c r="X16" t="n">
-        <v>54.47232700471255</v>
+        <v>54.4723270047125</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07888360609898</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417491</v>
+        <v>463.3662739417489</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731525</v>
+        <v>410.0798406731521</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135978</v>
+        <v>369.3523344135976</v>
       </c>
       <c r="E17" t="n">
         <v>294.5776034879736</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336853</v>
+        <v>187.7621275336855</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151392</v>
+        <v>65.14969672151395</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95425539993046</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J17" t="n">
-        <v>119.452841929831</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K17" t="n">
-        <v>119.452841929831</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="L17" t="n">
-        <v>166.1640002688674</v>
+        <v>61.79004194513536</v>
       </c>
       <c r="M17" t="n">
-        <v>247.0151238822127</v>
+        <v>142.6411655584807</v>
       </c>
       <c r="N17" t="n">
-        <v>322.3320671858748</v>
+        <v>217.9581088621428</v>
       </c>
       <c r="O17" t="n">
-        <v>508.9332518113496</v>
+        <v>404.5592934876176</v>
       </c>
       <c r="P17" t="n">
-        <v>508.9332518113496</v>
+        <v>591.1604781130925</v>
       </c>
       <c r="Q17" t="n">
-        <v>508.9332518113496</v>
+        <v>707.1158121312009</v>
       </c>
       <c r="R17" t="n">
-        <v>610.4740762111992</v>
+        <v>707.1158121312009</v>
       </c>
       <c r="S17" t="n">
-        <v>679.7082623631335</v>
+        <v>707.1158121312009</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9441803049489</v>
+        <v>707.1158121312009</v>
       </c>
       <c r="U17" t="n">
         <v>753.9441803049489</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394096</v>
+        <v>730.2796801394093</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4266140985019</v>
+        <v>689.4266140985012</v>
       </c>
       <c r="X17" t="n">
-        <v>626.4662243515949</v>
+        <v>626.4662243515943</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342395</v>
+        <v>540.775679934239</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>516.3010077656349</v>
+        <v>391.8975839133209</v>
       </c>
       <c r="C18" t="n">
-        <v>516.3010077656349</v>
+        <v>391.8975839133209</v>
       </c>
       <c r="D18" t="n">
-        <v>355.5208915266667</v>
+        <v>391.8975839133209</v>
       </c>
       <c r="E18" t="n">
-        <v>355.5208915266667</v>
+        <v>218.3343800347354</v>
       </c>
       <c r="F18" t="n">
-        <v>195.0931752439108</v>
+        <v>218.3343800347354</v>
       </c>
       <c r="G18" t="n">
-        <v>195.0931752439108</v>
+        <v>68.08727130703952</v>
       </c>
       <c r="H18" t="n">
         <v>68.08727130703952</v>
@@ -5595,16 +5595,16 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K18" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936456</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M18" t="n">
         <v>352.0310247576277</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6322093831026</v>
+        <v>538.6322093831025</v>
       </c>
       <c r="O18" t="n">
         <v>670.3253369263737</v>
@@ -5613,31 +5613,31 @@
         <v>753.9441803049489</v>
       </c>
       <c r="Q18" t="n">
-        <v>753.9441803049489</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="R18" t="n">
-        <v>753.9441803049489</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="S18" t="n">
-        <v>563.5542357834971</v>
+        <v>747.0010596398749</v>
       </c>
       <c r="T18" t="n">
-        <v>516.3010077656349</v>
+        <v>556.6111151184232</v>
       </c>
       <c r="U18" t="n">
-        <v>516.3010077656349</v>
+        <v>391.8975839133209</v>
       </c>
       <c r="V18" t="n">
-        <v>516.3010077656349</v>
+        <v>391.8975839133209</v>
       </c>
       <c r="W18" t="n">
-        <v>516.3010077656349</v>
+        <v>391.8975839133209</v>
       </c>
       <c r="X18" t="n">
-        <v>516.3010077656349</v>
+        <v>391.8975839133209</v>
       </c>
       <c r="Y18" t="n">
-        <v>516.3010077656349</v>
+        <v>391.8975839133209</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417496</v>
+        <v>463.3662739417497</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731529</v>
+        <v>410.0798406731531</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135983</v>
+        <v>369.3523344135986</v>
       </c>
       <c r="E20" t="n">
-        <v>294.577603487974</v>
+        <v>294.5776034879741</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336858</v>
+        <v>187.7621275336855</v>
       </c>
       <c r="G20" t="n">
-        <v>65.14969672151392</v>
+        <v>65.14969672151395</v>
       </c>
       <c r="H20" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95425539993046</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J20" t="n">
-        <v>257.5554400254053</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K20" t="n">
-        <v>373.3845558783731</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="L20" t="n">
-        <v>420.0957142174095</v>
+        <v>61.79004194513536</v>
       </c>
       <c r="M20" t="n">
-        <v>500.9468378307548</v>
+        <v>142.6411655584807</v>
       </c>
       <c r="N20" t="n">
-        <v>576.2637811344169</v>
+        <v>217.9581088621428</v>
       </c>
       <c r="O20" t="n">
-        <v>610.4740762111992</v>
+        <v>404.5592934876176</v>
       </c>
       <c r="P20" t="n">
-        <v>610.4740762111992</v>
+        <v>591.1604781130925</v>
       </c>
       <c r="Q20" t="n">
-        <v>610.4740762111992</v>
+        <v>707.1158121312009</v>
       </c>
       <c r="R20" t="n">
-        <v>610.4740762111992</v>
+        <v>707.1158121312009</v>
       </c>
       <c r="S20" t="n">
-        <v>679.7082623631335</v>
+        <v>707.1158121312009</v>
       </c>
       <c r="T20" t="n">
-        <v>753.9441803049489</v>
+        <v>707.1158121312009</v>
       </c>
       <c r="U20" t="n">
         <v>753.9441803049489</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394096</v>
+        <v>730.2796801394097</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4266140985019</v>
+        <v>689.4266140985021</v>
       </c>
       <c r="X20" t="n">
-        <v>626.4662243515949</v>
+        <v>626.4662243515952</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342396</v>
+        <v>540.7756799342397</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>194.6284383351104</v>
+        <v>204.4911578731353</v>
       </c>
       <c r="C21" t="n">
         <v>15.07888360609898</v>
@@ -5826,55 +5826,55 @@
         <v>15.07888360609898</v>
       </c>
       <c r="I21" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609888</v>
       </c>
       <c r="J21" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609888</v>
       </c>
       <c r="K21" t="n">
-        <v>53.03690762936457</v>
+        <v>53.03690762936446</v>
       </c>
       <c r="L21" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743614</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0310247576277</v>
+        <v>352.0310247576276</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6322093831026</v>
+        <v>538.6322093831025</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3253369263738</v>
+        <v>670.3253369263737</v>
       </c>
       <c r="P21" t="n">
-        <v>753.944180304949</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="Q21" t="n">
-        <v>753.944180304949</v>
+        <v>753.9441803049489</v>
       </c>
       <c r="R21" t="n">
-        <v>753.944180304949</v>
+        <v>617.861493459025</v>
       </c>
       <c r="S21" t="n">
-        <v>753.944180304949</v>
+        <v>617.861493459025</v>
       </c>
       <c r="T21" t="n">
-        <v>753.944180304949</v>
+        <v>427.4715489375733</v>
       </c>
       <c r="U21" t="n">
-        <v>753.944180304949</v>
+        <v>383.0270108000703</v>
       </c>
       <c r="V21" t="n">
-        <v>753.944180304949</v>
+        <v>383.0270108000703</v>
       </c>
       <c r="W21" t="n">
-        <v>753.944180304949</v>
+        <v>383.0270108000703</v>
       </c>
       <c r="X21" t="n">
-        <v>563.5542357834972</v>
+        <v>383.0270108000703</v>
       </c>
       <c r="Y21" t="n">
-        <v>373.1642912620455</v>
+        <v>383.0270108000703</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417492</v>
+        <v>463.3662739417487</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731527</v>
+        <v>410.0798406731519</v>
       </c>
       <c r="D23" t="n">
-        <v>369.352334413598</v>
+        <v>369.3523344135974</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879738</v>
+        <v>294.5776034879734</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336857</v>
+        <v>187.7621275336853</v>
       </c>
       <c r="G23" t="n">
-        <v>65.14969672151395</v>
+        <v>65.14969672151393</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07888360609898</v>
+        <v>70.95425539993045</v>
       </c>
       <c r="J23" t="n">
-        <v>15.07888360609898</v>
+        <v>225.0153633047755</v>
       </c>
       <c r="K23" t="n">
-        <v>42.11146632132348</v>
+        <v>225.0153633047755</v>
       </c>
       <c r="L23" t="n">
-        <v>88.82262466035989</v>
+        <v>271.7265216438119</v>
       </c>
       <c r="M23" t="n">
-        <v>169.6737482737052</v>
+        <v>352.5776452571572</v>
       </c>
       <c r="N23" t="n">
-        <v>244.9906915773673</v>
+        <v>427.8945885608193</v>
       </c>
       <c r="O23" t="n">
-        <v>279.2009866541496</v>
+        <v>462.1048836376015</v>
       </c>
       <c r="P23" t="n">
-        <v>465.8021712796244</v>
+        <v>462.1048836376015</v>
       </c>
       <c r="Q23" t="n">
-        <v>652.4033559050993</v>
+        <v>462.1048836376015</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9441803049489</v>
+        <v>563.6457080374511</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9441803049489</v>
+        <v>632.8798941893854</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9441803049489</v>
+        <v>707.1158121312008</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049489</v>
+        <v>753.9441803049488</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394096</v>
+        <v>730.279680139409</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985019</v>
+        <v>689.426614098501</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515949</v>
+        <v>626.4662243515941</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342393</v>
+        <v>540.7756799342387</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>204.4911578731353</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="C24" t="n">
-        <v>15.07888360609898</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="D24" t="n">
-        <v>15.07888360609898</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="E24" t="n">
-        <v>15.07888360609898</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07888360609898</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07888360609898</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K24" t="n">
-        <v>53.03690762936457</v>
+        <v>53.03690762936456</v>
       </c>
       <c r="L24" t="n">
-        <v>170.3626975743616</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M24" t="n">
         <v>352.0310247576277</v>
@@ -6087,31 +6087,31 @@
         <v>753.944180304949</v>
       </c>
       <c r="Q24" t="n">
-        <v>753.944180304949</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="R24" t="n">
-        <v>753.944180304949</v>
+        <v>610.9183727939512</v>
       </c>
       <c r="S24" t="n">
-        <v>753.944180304949</v>
+        <v>610.9183727939512</v>
       </c>
       <c r="T24" t="n">
-        <v>753.944180304949</v>
+        <v>420.5284282724995</v>
       </c>
       <c r="U24" t="n">
-        <v>753.944180304949</v>
+        <v>420.5284282724995</v>
       </c>
       <c r="V24" t="n">
-        <v>573.4169553215221</v>
+        <v>420.5284282724995</v>
       </c>
       <c r="W24" t="n">
-        <v>383.0270108000703</v>
+        <v>332.474732064422</v>
       </c>
       <c r="X24" t="n">
-        <v>383.0270108000703</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="Y24" t="n">
-        <v>383.0270108000703</v>
+        <v>142.0847875429703</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609897</v>
       </c>
     </row>
     <row r="26">
@@ -6203,46 +6203,46 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7789886073105</v>
+        <v>882.7789886073103</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617566</v>
+        <v>757.2394630617565</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501332</v>
+        <v>597.6527128501331</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098458</v>
+        <v>406.0252176098457</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116751</v>
+        <v>198.600767511675</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026092</v>
+        <v>63.7179351102609</v>
       </c>
       <c r="I26" t="n">
         <v>35.91578399468464</v>
       </c>
       <c r="J26" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476706</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940054</v>
+        <v>375.935344594006</v>
       </c>
       <c r="L26" t="n">
-        <v>633.9996519916494</v>
+        <v>633.9996519916501</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2039246636024</v>
+        <v>926.2039246636032</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.874017025872</v>
+        <v>1212.874017025873</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.437461161262</v>
+        <v>1458.437461161263</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.840732969349</v>
+        <v>1654.84073296935</v>
       </c>
       <c r="Q26" t="n">
         <v>1777.37263543659</v>
@@ -6260,7 +6260,7 @@
         <v>1735.515443955102</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503564</v>
+        <v>1627.038924503563</v>
       </c>
       <c r="W26" t="n">
         <v>1501.373839176656</v>
@@ -6269,7 +6269,7 @@
         <v>1353.60143014375</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.098866440396</v>
+        <v>1183.098866440395</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.6959002336529</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C27" t="n">
-        <v>196.6959002336529</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D27" t="n">
         <v>35.91578399468464</v>
@@ -6306,49 +6306,49 @@
         <v>35.91578399468464</v>
       </c>
       <c r="K27" t="n">
-        <v>73.87380801795024</v>
+        <v>73.87380801795021</v>
       </c>
       <c r="L27" t="n">
-        <v>191.1995979629473</v>
+        <v>191.1995979629472</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8679251462135</v>
+        <v>372.8679251462133</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7643619459217</v>
+        <v>577.7643619459216</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4574894891929</v>
+        <v>709.4574894891928</v>
       </c>
       <c r="P27" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="R27" t="n">
-        <v>656.9936460218443</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="S27" t="n">
-        <v>463.4669719207885</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="T27" t="n">
-        <v>461.9689639058618</v>
+        <v>791.5783248528411</v>
       </c>
       <c r="U27" t="n">
-        <v>437.9891231718015</v>
+        <v>740.7896635495512</v>
       </c>
       <c r="V27" t="n">
-        <v>410.5538791684951</v>
+        <v>497.7099454531852</v>
       </c>
       <c r="W27" t="n">
-        <v>210.5556394955098</v>
+        <v>228.3113761834765</v>
       </c>
       <c r="X27" t="n">
-        <v>206.6921192052657</v>
+        <v>224.4478558932325</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.6959002336529</v>
+        <v>214.4516369216197</v>
       </c>
     </row>
     <row r="28">
@@ -6358,73 +6358,73 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>71.42818159497389</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C28" t="n">
-        <v>117.9887214913289</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="D28" t="n">
-        <v>117.9887214913289</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="E28" t="n">
-        <v>117.9887214913289</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F28" t="n">
-        <v>117.9887214913289</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G28" t="n">
-        <v>162.3280758450206</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H28" t="n">
-        <v>180.7329981785635</v>
+        <v>83.10253463480596</v>
       </c>
       <c r="I28" t="n">
-        <v>180.7329981785635</v>
+        <v>131.2504174931096</v>
       </c>
       <c r="J28" t="n">
-        <v>180.7329981785635</v>
+        <v>180.7329981785633</v>
       </c>
       <c r="K28" t="n">
-        <v>180.7329981785635</v>
+        <v>180.7329981785633</v>
       </c>
       <c r="L28" t="n">
-        <v>180.7329981785635</v>
+        <v>180.7329981785633</v>
       </c>
       <c r="M28" t="n">
-        <v>180.7329981785635</v>
+        <v>180.7329981785633</v>
       </c>
       <c r="N28" t="n">
-        <v>180.7329981785635</v>
+        <v>180.7329981785633</v>
       </c>
       <c r="O28" t="n">
-        <v>180.7329981785635</v>
+        <v>180.7329981785633</v>
       </c>
       <c r="P28" t="n">
-        <v>180.7329981785635</v>
+        <v>180.7329981785633</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1390261192994</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9668043204433</v>
+        <v>243.9668043204432</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974705</v>
+        <v>233.5893821974704</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923415</v>
+        <v>157.6615749923414</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7211852627244</v>
+        <v>125.7211852627243</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170789</v>
+        <v>48.12252088170784</v>
       </c>
       <c r="X28" t="n">
-        <v>39.6059289058356</v>
+        <v>39.60592890583558</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91578399468464</v>
@@ -6440,31 +6440,31 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073107</v>
+        <v>882.7789886073099</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617569</v>
+        <v>757.2394630617561</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6527128501334</v>
+        <v>597.6527128501326</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098461</v>
+        <v>406.0252176098452</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6007675116755</v>
+        <v>198.6007675116746</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71793511026144</v>
+        <v>63.71793511026091</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="J29" t="n">
         <v>171.24992184767</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940053</v>
+        <v>375.9353445940054</v>
       </c>
       <c r="L29" t="n">
         <v>633.9996519916494</v>
@@ -6476,37 +6476,37 @@
         <v>1212.874017025872</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.437461161263</v>
+        <v>1458.437461161262</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.84073296935</v>
+        <v>1654.840732969349</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.37263543659</v>
+        <v>1777.372635436589</v>
       </c>
       <c r="R29" t="n">
-        <v>1795.789199734232</v>
+        <v>1795.789199734231</v>
       </c>
       <c r="S29" t="n">
-        <v>1781.617101019536</v>
+        <v>1781.617101019535</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.548289510106</v>
+        <v>1772.548289510105</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.515443955102</v>
+        <v>1735.515443955101</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.038924503563</v>
+        <v>1627.038924503562</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.373839176656</v>
+        <v>1501.373839176655</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.60143014375</v>
+        <v>1353.601430143749</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.098866440396</v>
+        <v>1183.098866440395</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>546.5358907834451</v>
+        <v>456.904931583909</v>
       </c>
       <c r="C30" t="n">
-        <v>357.1236165164088</v>
+        <v>456.904931583909</v>
       </c>
       <c r="D30" t="n">
-        <v>196.3435002774406</v>
+        <v>456.904931583909</v>
       </c>
       <c r="E30" t="n">
-        <v>196.3435002774406</v>
+        <v>283.3417277053235</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91578399468465</v>
+        <v>122.9140114225676</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91578399468465</v>
+        <v>122.9140114225676</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="K30" t="n">
-        <v>73.87380801795024</v>
+        <v>73.87380801795021</v>
       </c>
       <c r="L30" t="n">
-        <v>191.1995979629473</v>
+        <v>191.1995979629472</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8679251462135</v>
+        <v>372.8679251462133</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7643619459217</v>
+        <v>577.7643619459216</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4574894891929</v>
+        <v>709.4574894891928</v>
       </c>
       <c r="P30" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="R30" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="S30" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="T30" t="n">
-        <v>665.5648099593174</v>
+        <v>791.5783248528411</v>
       </c>
       <c r="U30" t="n">
-        <v>641.5849692252572</v>
+        <v>767.5984841187809</v>
       </c>
       <c r="V30" t="n">
-        <v>614.1497252219509</v>
+        <v>740.1632401154745</v>
       </c>
       <c r="W30" t="n">
-        <v>560.3956300453018</v>
+        <v>470.7646708457659</v>
       </c>
       <c r="X30" t="n">
-        <v>556.5321097550578</v>
+        <v>466.9011505555218</v>
       </c>
       <c r="Y30" t="n">
-        <v>546.5358907834451</v>
+        <v>456.904931583909</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="D31" t="n">
-        <v>103.5381093050888</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="E31" t="n">
-        <v>103.5381093050888</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="F31" t="n">
-        <v>103.5381093050888</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="G31" t="n">
-        <v>103.5381093050888</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="H31" t="n">
-        <v>150.7248599452101</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="I31" t="n">
-        <v>198.8727428035138</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="J31" t="n">
-        <v>266.139026119299</v>
+        <v>35.91578399468462</v>
       </c>
       <c r="K31" t="n">
-        <v>266.139026119299</v>
+        <v>180.9060545745092</v>
       </c>
       <c r="L31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="M31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="N31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="O31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="P31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="R31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="S31" t="n">
-        <v>243.966804320443</v>
+        <v>243.9668043204432</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974702</v>
+        <v>233.5893821974704</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923413</v>
+        <v>157.6615749923414</v>
       </c>
       <c r="V31" t="n">
         <v>125.7211852627243</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170779</v>
+        <v>48.12252088170782</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583555</v>
+        <v>39.60592890583556</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468462</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.162565128079</v>
+        <v>1014.162565128078</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848168</v>
+        <v>876.9831877848164</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505968</v>
+        <v>752.3627374505966</v>
       </c>
       <c r="E32" t="n">
         <v>593.6950624503072</v>
@@ -6689,58 +6689,58 @@
         <v>402.9866424213537</v>
       </c>
       <c r="G32" t="n">
-        <v>196.4812675345173</v>
+        <v>196.4812675345171</v>
       </c>
       <c r="H32" t="n">
-        <v>62.51751034443704</v>
+        <v>62.51751034443691</v>
       </c>
       <c r="I32" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019464</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8693579078083</v>
+        <v>171.8693579078084</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4555662687721</v>
+        <v>377.4555662687723</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4206592810447</v>
+        <v>614.5274605793795</v>
       </c>
       <c r="M32" t="n">
-        <v>929.5257175676261</v>
+        <v>907.6325188659608</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.096595544524</v>
+        <v>1195.203396842859</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.560825294543</v>
+        <v>1441.667626592877</v>
       </c>
       <c r="P32" t="n">
-        <v>1660.864882717258</v>
+        <v>1638.971684015593</v>
       </c>
       <c r="Q32" t="n">
-        <v>1781.721722009733</v>
+        <v>1762.404372097462</v>
       </c>
       <c r="R32" t="n">
-        <v>1781.721722009733</v>
+        <v>1781.721722009732</v>
       </c>
       <c r="S32" t="n">
-        <v>1768.468698506371</v>
+        <v>1768.46869850637</v>
       </c>
       <c r="T32" t="n">
-        <v>1760.318962208275</v>
+        <v>1760.318962208274</v>
       </c>
       <c r="U32" t="n">
-        <v>1724.205191864605</v>
+        <v>1724.205191864603</v>
       </c>
       <c r="V32" t="n">
-        <v>1616.6477476244</v>
+        <v>1616.647747624399</v>
       </c>
       <c r="W32" t="n">
-        <v>1491.901737508827</v>
+        <v>1491.901737508826</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.048403687255</v>
+        <v>1345.048403687254</v>
       </c>
       <c r="Y32" t="n">
         <v>1175.464915195234</v>
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>196.0621507229506</v>
+        <v>35.63443444019464</v>
       </c>
       <c r="C33" t="n">
-        <v>196.0621507229506</v>
+        <v>35.63443444019464</v>
       </c>
       <c r="D33" t="n">
-        <v>196.0621507229506</v>
+        <v>35.63443444019464</v>
       </c>
       <c r="E33" t="n">
-        <v>196.0621507229506</v>
+        <v>35.63443444019464</v>
       </c>
       <c r="F33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019464</v>
       </c>
       <c r="G33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019464</v>
       </c>
       <c r="H33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019464</v>
       </c>
       <c r="I33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019464</v>
       </c>
       <c r="J33" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019464</v>
       </c>
       <c r="K33" t="n">
-        <v>73.59245846346025</v>
+        <v>73.59245846346022</v>
       </c>
       <c r="L33" t="n">
-        <v>190.9182484084573</v>
+        <v>190.9182484084572</v>
       </c>
       <c r="M33" t="n">
         <v>372.5865755917234</v>
       </c>
       <c r="N33" t="n">
-        <v>577.4830123914317</v>
+        <v>577.4830123914315</v>
       </c>
       <c r="O33" t="n">
-        <v>709.1761399347029</v>
+        <v>709.1761399347027</v>
       </c>
       <c r="P33" t="n">
         <v>792.794983313278</v>
@@ -6807,22 +6807,22 @@
         <v>792.794983313278</v>
       </c>
       <c r="T33" t="n">
-        <v>792.216050509685</v>
+        <v>792.2160505096851</v>
       </c>
       <c r="U33" t="n">
-        <v>552.5917356825652</v>
+        <v>560.1343106454581</v>
       </c>
       <c r="V33" t="n">
-        <v>526.0755668905928</v>
+        <v>317.0545925490921</v>
       </c>
       <c r="W33" t="n">
-        <v>256.6769976208841</v>
+        <v>47.65602327938347</v>
       </c>
       <c r="X33" t="n">
-        <v>253.7325525419739</v>
+        <v>44.7115782004734</v>
       </c>
       <c r="Y33" t="n">
-        <v>196.0621507229506</v>
+        <v>35.63443444019464</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019464</v>
       </c>
       <c r="C34" t="n">
-        <v>35.63443444019466</v>
+        <v>83.09575995117815</v>
       </c>
       <c r="D34" t="n">
-        <v>91.38015258542865</v>
+        <v>83.09575995117815</v>
       </c>
       <c r="E34" t="n">
-        <v>91.38015258542865</v>
+        <v>83.09575995117815</v>
       </c>
       <c r="F34" t="n">
-        <v>166.0964738624025</v>
+        <v>83.09575995117815</v>
       </c>
       <c r="G34" t="n">
-        <v>211.3366138307225</v>
+        <v>83.09575995117815</v>
       </c>
       <c r="H34" t="n">
-        <v>259.4241500854721</v>
+        <v>83.09575995117815</v>
       </c>
       <c r="I34" t="n">
-        <v>259.4241500854721</v>
+        <v>132.1444284241102</v>
       </c>
       <c r="J34" t="n">
-        <v>259.4241500854721</v>
+        <v>132.1444284241102</v>
       </c>
       <c r="K34" t="n">
-        <v>259.4241500854721</v>
+        <v>132.1444284241102</v>
       </c>
       <c r="L34" t="n">
-        <v>259.4241500854721</v>
+        <v>132.1444284241102</v>
       </c>
       <c r="M34" t="n">
-        <v>259.4241500854721</v>
+        <v>132.1444284241102</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4241500854721</v>
+        <v>248.5671146719085</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4241500854721</v>
+        <v>248.5671146719085</v>
       </c>
       <c r="P34" t="n">
-        <v>259.4241500854721</v>
+        <v>248.5671146719085</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.4241500854721</v>
+        <v>248.5671146719085</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854721</v>
+        <v>259.4241500854713</v>
       </c>
       <c r="S34" t="n">
-        <v>238.17100349795</v>
+        <v>238.1710034979492</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863111</v>
+        <v>228.7126565863105</v>
       </c>
       <c r="U34" t="n">
-        <v>153.703924592516</v>
+        <v>153.7039245925155</v>
       </c>
       <c r="V34" t="n">
-        <v>122.6826100742327</v>
+        <v>122.6826100742324</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090455011</v>
+        <v>46.00302090454986</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001172</v>
+        <v>38.40550414001159</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.63443444019466</v>
+        <v>35.63443444019464</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0203756379709</v>
+        <v>623.02037563797</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0845948837517</v>
+        <v>544.0845948837509</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7077411385745</v>
+        <v>477.707741138574</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2836627273277</v>
+        <v>377.2836627273273</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8188392874169</v>
+        <v>244.8188392874167</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55706098962317</v>
+        <v>96.55706098962304</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57334671175849</v>
+        <v>51.57334671175857</v>
       </c>
       <c r="J35" t="n">
-        <v>244.892819196293</v>
+        <v>244.8928191962932</v>
       </c>
       <c r="K35" t="n">
-        <v>244.892819196293</v>
+        <v>244.8928191962932</v>
       </c>
       <c r="L35" t="n">
-        <v>291.6039775353294</v>
+        <v>291.6039775353296</v>
       </c>
       <c r="M35" t="n">
-        <v>372.4551011486747</v>
+        <v>372.4551011486749</v>
       </c>
       <c r="N35" t="n">
-        <v>447.7720444523368</v>
+        <v>447.772044452337</v>
       </c>
       <c r="O35" t="n">
-        <v>481.982339529119</v>
+        <v>481.9823395291192</v>
       </c>
       <c r="P35" t="n">
-        <v>736.3709459687552</v>
+        <v>736.3709459687554</v>
       </c>
       <c r="Q35" t="n">
-        <v>916.8881830675447</v>
+        <v>916.888183067545</v>
       </c>
       <c r="R35" t="n">
-        <v>992.7480269581264</v>
+        <v>993.290081996736</v>
       </c>
       <c r="S35" t="n">
-        <v>992.7480269581264</v>
+        <v>1037.385342678012</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.845019429283</v>
+        <v>1037.385342678012</v>
       </c>
       <c r="U35" t="n">
-        <v>1041.845019429283</v>
+        <v>1041.845019429282</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5311717781213</v>
+        <v>992.5311717781201</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0287582515909</v>
+        <v>926.0287582515898</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190613</v>
+        <v>837.4190210190603</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0791291160835</v>
+        <v>726.0791291160825</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>777.9974492616691</v>
+        <v>544.2400948169634</v>
       </c>
       <c r="C36" t="n">
-        <v>777.9974492616691</v>
+        <v>354.8278205499271</v>
       </c>
       <c r="D36" t="n">
-        <v>740.5298758775135</v>
+        <v>354.8278205499271</v>
       </c>
       <c r="E36" t="n">
-        <v>566.9666719989279</v>
+        <v>181.2646166713416</v>
       </c>
       <c r="F36" t="n">
-        <v>406.538955716172</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="G36" t="n">
-        <v>256.2918469884762</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H36" t="n">
-        <v>129.2859430516049</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K36" t="n">
-        <v>58.79492441185126</v>
+        <v>58.79492441185123</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1207143568483</v>
+        <v>176.1207143568482</v>
       </c>
       <c r="M36" t="n">
-        <v>357.7890415401145</v>
+        <v>357.7890415401144</v>
       </c>
       <c r="N36" t="n">
-        <v>562.6854783398227</v>
+        <v>562.6854783398226</v>
       </c>
       <c r="O36" t="n">
-        <v>694.3786058830939</v>
+        <v>694.3786058830938</v>
       </c>
       <c r="P36" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="Q36" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="R36" t="n">
-        <v>777.9974492616691</v>
+        <v>641.914762415745</v>
       </c>
       <c r="S36" t="n">
-        <v>777.9974492616691</v>
+        <v>641.914762415745</v>
       </c>
       <c r="T36" t="n">
-        <v>777.9974492616691</v>
+        <v>641.914762415745</v>
       </c>
       <c r="U36" t="n">
-        <v>777.9974492616691</v>
+        <v>641.914762415745</v>
       </c>
       <c r="V36" t="n">
-        <v>777.9974492616691</v>
+        <v>641.914762415745</v>
       </c>
       <c r="W36" t="n">
-        <v>777.9974492616691</v>
+        <v>641.914762415745</v>
       </c>
       <c r="X36" t="n">
-        <v>777.9974492616691</v>
+        <v>641.914762415745</v>
       </c>
       <c r="Y36" t="n">
-        <v>777.9974492616691</v>
+        <v>641.914762415745</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="P37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03802837397789</v>
+        <v>56.03802837397765</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27289296922555</v>
+        <v>39.27289296922542</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27289296922555</v>
+        <v>39.27289296922542</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397765</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0203756379711</v>
+        <v>623.0203756379706</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0845948837519</v>
+        <v>544.0845948837515</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7077411385748</v>
+        <v>477.7077411385743</v>
       </c>
       <c r="E38" t="n">
-        <v>377.283662727328</v>
+        <v>377.2836627273276</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8188392874172</v>
+        <v>244.8188392874169</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55706098962315</v>
+        <v>96.55706098962304</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83690038858566</v>
+        <v>50.09378539238114</v>
       </c>
       <c r="J38" t="n">
-        <v>214.1563728731201</v>
+        <v>243.4132578769157</v>
       </c>
       <c r="K38" t="n">
-        <v>472.0130151818678</v>
+        <v>501.2699001856631</v>
       </c>
       <c r="L38" t="n">
-        <v>518.7241735209042</v>
+        <v>547.9810585246995</v>
       </c>
       <c r="M38" t="n">
-        <v>599.5752971342495</v>
+        <v>628.8321821380448</v>
       </c>
       <c r="N38" t="n">
-        <v>674.8922404379116</v>
+        <v>704.1491254417069</v>
       </c>
       <c r="O38" t="n">
-        <v>709.1025355146938</v>
+        <v>738.3594205184892</v>
       </c>
       <c r="P38" t="n">
-        <v>861.327782330494</v>
+        <v>992.7480269581254</v>
       </c>
       <c r="Q38" t="n">
-        <v>1041.845019429283</v>
+        <v>992.7480269581254</v>
       </c>
       <c r="R38" t="n">
-        <v>1041.845019429283</v>
+        <v>992.7480269581254</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.845019429283</v>
+        <v>992.7480269581254</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.845019429283</v>
+        <v>1041.845019429282</v>
       </c>
       <c r="U38" t="n">
-        <v>1041.845019429283</v>
+        <v>1041.845019429282</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5311717781216</v>
+        <v>992.5311717781206</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0287582515912</v>
+        <v>926.0287582515903</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4190210190616</v>
+        <v>837.4190210190608</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0791291160838</v>
+        <v>726.0791291160831</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>371.0292908945902</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="C39" t="n">
-        <v>181.6170166275539</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83690038858566</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83690038858566</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83690038858566</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83690038858566</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185126</v>
+        <v>58.79492441185123</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1207143568483</v>
+        <v>176.1207143568482</v>
       </c>
       <c r="M39" t="n">
-        <v>357.7890415401145</v>
+        <v>357.7890415401144</v>
       </c>
       <c r="N39" t="n">
-        <v>562.6854783398227</v>
+        <v>562.6854783398226</v>
       </c>
       <c r="O39" t="n">
-        <v>694.3786058830939</v>
+        <v>694.3786058830938</v>
       </c>
       <c r="P39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="Q39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="R39" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="S39" t="n">
-        <v>777.9974492616691</v>
+        <v>584.4707751606131</v>
       </c>
       <c r="T39" t="n">
-        <v>777.9974492616691</v>
+        <v>584.4707751606131</v>
       </c>
       <c r="U39" t="n">
-        <v>777.9974492616691</v>
+        <v>414.1637272126474</v>
       </c>
       <c r="V39" t="n">
-        <v>777.9974492616691</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="W39" t="n">
-        <v>775.2058368861976</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="X39" t="n">
-        <v>775.2058368861976</v>
+        <v>171.0840091162815</v>
       </c>
       <c r="Y39" t="n">
-        <v>549.5651438215252</v>
+        <v>171.0840091162815</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83690038858566</v>
+        <v>29.08146646549741</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83690038858566</v>
+        <v>29.08146646549741</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83690038858566</v>
+        <v>29.08146646549741</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83690038858566</v>
+        <v>29.08146646549741</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83690038858566</v>
+        <v>29.08146646549741</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83690038858566</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83690038858566</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83690038858566</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83690038858566</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83690038858566</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83690038858566</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83690038858566</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83690038858566</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="O40" t="n">
-        <v>20.83690038858566</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03802837397789</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03802837397789</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03802837397789</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03802837397789</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03802837397789</v>
+        <v>37.60203579333788</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27289296922555</v>
+        <v>20.83690038858565</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27289296922555</v>
+        <v>47.51745904613718</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83690038858566</v>
+        <v>29.08146646549741</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83690038858566</v>
+        <v>29.08146646549741</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83690038858566</v>
+        <v>29.08146646549741</v>
       </c>
     </row>
     <row r="41">
@@ -7415,22 +7415,22 @@
         <v>422.5827360122556</v>
       </c>
       <c r="L41" t="n">
-        <v>469.293894351292</v>
+        <v>707.895931718276</v>
       </c>
       <c r="M41" t="n">
-        <v>550.1450179646373</v>
+        <v>842.9249374244826</v>
       </c>
       <c r="N41" t="n">
-        <v>864.0639986352834</v>
+        <v>918.2418807281447</v>
       </c>
       <c r="O41" t="n">
-        <v>1136.87633107905</v>
+        <v>952.4521758049269</v>
       </c>
       <c r="P41" t="n">
-        <v>1221.769788527408</v>
+        <v>1176.10433592139</v>
       </c>
       <c r="Q41" t="n">
-        <v>1371.550579303025</v>
+        <v>1325.885126697007</v>
       </c>
       <c r="R41" t="n">
         <v>1371.550579303025</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C42" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D42" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E42" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F42" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G42" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H42" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I42" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J42" t="n">
         <v>28.06539879618224</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02342281944783</v>
+        <v>66.02342281944782</v>
       </c>
       <c r="L42" t="n">
         <v>183.3492127644448</v>
@@ -7500,40 +7500,40 @@
         <v>365.017539947711</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9139767474193</v>
+        <v>569.9139767474192</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6071042906905</v>
+        <v>701.6071042906904</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="S42" t="n">
-        <v>591.6992735682099</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="T42" t="n">
-        <v>374.5567914602236</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="U42" t="n">
-        <v>134.9324766331038</v>
+        <v>742.6126555138669</v>
       </c>
       <c r="V42" t="n">
-        <v>134.9324766331038</v>
+        <v>742.6126555138669</v>
       </c>
       <c r="W42" t="n">
-        <v>81.07378649712277</v>
+        <v>473.2140862441582</v>
       </c>
       <c r="X42" t="n">
-        <v>81.07378649712277</v>
+        <v>253.7060918608546</v>
       </c>
       <c r="Y42" t="n">
-        <v>81.07378649712277</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="43">
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="O43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="P43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="R43" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="S43" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="T43" t="n">
         <v>130.125806765216</v>
@@ -7612,7 +7612,7 @@
         <v>28.06539879618224</v>
       </c>
       <c r="Y43" t="n">
-        <v>51.69757607713949</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4119981543697</v>
+        <v>818.4119981543695</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1156967153502</v>
+        <v>708.1156967153499</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3783222853726</v>
+        <v>610.3783222853724</v>
       </c>
       <c r="E44" t="n">
-        <v>478.5937231893251</v>
+        <v>478.593723189325</v>
       </c>
       <c r="F44" t="n">
-        <v>314.768379064614</v>
+        <v>314.7683790646139</v>
       </c>
       <c r="G44" t="n">
         <v>135.1460800820201</v>
@@ -7652,28 +7652,28 @@
         <v>422.5827360122556</v>
       </c>
       <c r="L44" t="n">
-        <v>469.293894351292</v>
+        <v>707.895931718276</v>
       </c>
       <c r="M44" t="n">
-        <v>636.0422605635854</v>
+        <v>788.7470553316213</v>
       </c>
       <c r="N44" t="n">
-        <v>949.9612412342315</v>
+        <v>864.0639986352834</v>
       </c>
       <c r="O44" t="n">
-        <v>984.1715363110137</v>
+        <v>952.4521758049269</v>
       </c>
       <c r="P44" t="n">
-        <v>1207.823696427477</v>
+        <v>1176.10433592139</v>
       </c>
       <c r="Q44" t="n">
-        <v>1357.604487203094</v>
+        <v>1325.885126697007</v>
       </c>
       <c r="R44" t="n">
-        <v>1403.269939809112</v>
+        <v>1371.550579303025</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.269939809112</v>
+        <v>1384.909393661128</v>
       </c>
       <c r="T44" t="n">
         <v>1403.269939809112</v>
@@ -7682,7 +7682,7 @@
         <v>1394.039245369684</v>
       </c>
       <c r="V44" t="n">
-        <v>1313.364877033722</v>
+        <v>1313.364877033721</v>
       </c>
       <c r="W44" t="n">
         <v>1215.501942822391</v>
@@ -7691,7 +7691,7 @@
         <v>1095.531684905061</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8312723172827</v>
+        <v>952.8312723172825</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>201.6286026747678</v>
+        <v>415.0647066584642</v>
       </c>
       <c r="C45" t="n">
-        <v>201.6286026747678</v>
+        <v>415.0647066584642</v>
       </c>
       <c r="D45" t="n">
-        <v>201.6286026747678</v>
+        <v>415.0647066584642</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06539879618224</v>
+        <v>241.5015027798787</v>
       </c>
       <c r="F45" t="n">
-        <v>28.06539879618224</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="G45" t="n">
-        <v>28.06539879618224</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="H45" t="n">
-        <v>28.06539879618224</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="I45" t="n">
-        <v>28.06539879618224</v>
+        <v>81.07378649712277</v>
       </c>
       <c r="J45" t="n">
         <v>28.06539879618224</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02342281944783</v>
+        <v>66.02342281944782</v>
       </c>
       <c r="L45" t="n">
         <v>183.3492127644448</v>
@@ -7737,40 +7737,40 @@
         <v>365.017539947711</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9139767474193</v>
+        <v>569.9139767474192</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6071042906905</v>
+        <v>701.6071042906904</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="Q45" t="n">
-        <v>785.2259476692657</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="R45" t="n">
-        <v>785.2259476692657</v>
+        <v>778.2828270041915</v>
       </c>
       <c r="S45" t="n">
-        <v>785.2259476692657</v>
+        <v>584.7561529031358</v>
       </c>
       <c r="T45" t="n">
-        <v>785.2259476692657</v>
+        <v>441.016650719537</v>
       </c>
       <c r="U45" t="n">
-        <v>545.6016328421458</v>
+        <v>441.016650719537</v>
       </c>
       <c r="V45" t="n">
-        <v>471.0271719444764</v>
+        <v>441.016650719537</v>
       </c>
       <c r="W45" t="n">
-        <v>201.6286026747678</v>
+        <v>415.0647066584642</v>
       </c>
       <c r="X45" t="n">
-        <v>201.6286026747678</v>
+        <v>415.0647066584642</v>
       </c>
       <c r="Y45" t="n">
-        <v>201.6286026747678</v>
+        <v>415.0647066584642</v>
       </c>
     </row>
     <row r="46">
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L46" t="n">
-        <v>109.7284612176717</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M46" t="n">
-        <v>109.7284612176717</v>
+        <v>130.125806765216</v>
       </c>
       <c r="N46" t="n">
-        <v>109.7284612176717</v>
+        <v>130.125806765216</v>
       </c>
       <c r="O46" t="n">
-        <v>109.7284612176717</v>
+        <v>130.125806765216</v>
       </c>
       <c r="P46" t="n">
-        <v>109.7284612176717</v>
+        <v>130.125806765216</v>
       </c>
       <c r="Q46" t="n">
-        <v>109.7284612176717</v>
+        <v>130.125806765216</v>
       </c>
       <c r="R46" t="n">
-        <v>109.7284612176717</v>
+        <v>130.125806765216</v>
       </c>
       <c r="S46" t="n">
-        <v>113.0478298795653</v>
+        <v>130.125806765216</v>
       </c>
       <c r="T46" t="n">
         <v>130.125806765216</v>
@@ -7846,10 +7846,10 @@
         <v>28.06539879618224</v>
       </c>
       <c r="X46" t="n">
-        <v>46.96717530900612</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.96717530900612</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
   </sheetData>
@@ -8535,19 +8535,19 @@
         <v>168.166555548718</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5532127625713</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>176.9203908159872</v>
+        <v>176.7782950813963</v>
       </c>
       <c r="N9" t="n">
         <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
-        <v>177.3421919187561</v>
+        <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.9656464766077</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1338058733768</v>
+        <v>292.1338058733767</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3371482120952</v>
+        <v>193.3371482120951</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0574857904725</v>
+        <v>225.0574857904724</v>
       </c>
       <c r="G11" t="n">
-        <v>52.21042602353975</v>
+        <v>240.6964710997769</v>
       </c>
       <c r="H11" t="n">
-        <v>168.880269579988</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.87039510700846</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.74367530294979</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.37664323013693</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.32438889692367</v>
       </c>
       <c r="U11" t="n">
-        <v>34.02741580776155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>142.738019759611</v>
@@ -23324,7 +23324,7 @@
         <v>181.6409504451651</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1438035689089</v>
+        <v>45.2503413434016</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.459431452055128</v>
+        <v>195.9454765282923</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0637335316378</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926863</v>
+        <v>159.6303957926862</v>
       </c>
       <c r="E14" t="n">
-        <v>90.18903481595412</v>
+        <v>193.3371482120951</v>
       </c>
       <c r="F14" t="n">
-        <v>36.57144071423528</v>
+        <v>225.0574857904724</v>
       </c>
       <c r="G14" t="n">
-        <v>240.696471099777</v>
+        <v>211.9649780927976</v>
       </c>
       <c r="H14" t="n">
-        <v>168.880269579988</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.74367530294984</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013698</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692372</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204232</v>
+        <v>72.00878260204226</v>
       </c>
       <c r="V14" t="n">
         <v>142.738019759611</v>
@@ -23561,7 +23561,7 @@
         <v>181.6409504451651</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.65775849267169</v>
+        <v>15.65775849267163</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>923272.0941759804</v>
+        <v>923272.0941759807</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>923272.0941759805</v>
+        <v>923272.0941759808</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>485062.5973470528</v>
+        <v>485062.5973470529</v>
       </c>
       <c r="C2" t="n">
         <v>485062.5973470528</v>
       </c>
       <c r="D2" t="n">
-        <v>485356.6290399873</v>
+        <v>485356.6290399872</v>
       </c>
       <c r="E2" t="n">
         <v>417847.5331147965</v>
       </c>
       <c r="F2" t="n">
-        <v>417847.5331147963</v>
+        <v>417847.5331147965</v>
       </c>
       <c r="G2" t="n">
-        <v>486045.2018721945</v>
+        <v>486045.2018721946</v>
       </c>
       <c r="H2" t="n">
         <v>486045.2018721945</v>
       </c>
       <c r="I2" t="n">
-        <v>486045.2018721946</v>
+        <v>486045.2018721945</v>
       </c>
       <c r="J2" t="n">
-        <v>486045.2018721947</v>
+        <v>486045.2018721948</v>
       </c>
       <c r="K2" t="n">
-        <v>486045.2018721947</v>
+        <v>486045.2018721949</v>
       </c>
       <c r="L2" t="n">
-        <v>486045.2018721947</v>
+        <v>486045.2018721944</v>
       </c>
       <c r="M2" t="n">
         <v>486045.2018721948</v>
       </c>
       <c r="N2" t="n">
-        <v>486045.2018721949</v>
+        <v>486045.2018721948</v>
       </c>
       <c r="O2" t="n">
+        <v>486045.2018721947</v>
+      </c>
+      <c r="P2" t="n">
         <v>486045.2018721945</v>
-      </c>
-      <c r="P2" t="n">
-        <v>486045.2018721947</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658173</v>
+        <v>95448.13167658169</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710102</v>
+        <v>143490.4163710103</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395815</v>
+        <v>96176.03924395821</v>
       </c>
       <c r="M3" t="n">
         <v>46128.92849852185</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.0765513411</v>
+        <v>72249.07655134112</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26436,10 +26436,10 @@
         <v>349424.6097629185</v>
       </c>
       <c r="I4" t="n">
-        <v>349424.6097629185</v>
+        <v>349424.6097629184</v>
       </c>
       <c r="J4" t="n">
-        <v>350153.9756409439</v>
+        <v>350153.975640944</v>
       </c>
       <c r="K4" t="n">
         <v>350153.975640944</v>
@@ -26451,10 +26451,10 @@
         <v>349329.303575735</v>
       </c>
       <c r="N4" t="n">
-        <v>349329.303575735</v>
+        <v>349329.3035757351</v>
       </c>
       <c r="O4" t="n">
-        <v>349716.3329031965</v>
+        <v>349716.3329031964</v>
       </c>
       <c r="P4" t="n">
         <v>349716.3329031965</v>
@@ -26494,16 +26494,16 @@
         <v>47448.92101020607</v>
       </c>
       <c r="K5" t="n">
-        <v>47448.92101020608</v>
+        <v>47448.92101020606</v>
       </c>
       <c r="L5" t="n">
         <v>47311.58842539589</v>
       </c>
       <c r="M5" t="n">
-        <v>40912.97865860086</v>
+        <v>40912.97865860085</v>
       </c>
       <c r="N5" t="n">
-        <v>40912.97865860086</v>
+        <v>40912.97865860085</v>
       </c>
       <c r="O5" t="n">
         <v>43796.55431105827</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58220.38363469751</v>
+        <v>58215.91725049249</v>
       </c>
       <c r="C6" t="n">
-        <v>58220.38363469757</v>
+        <v>58215.91725049238</v>
       </c>
       <c r="D6" t="n">
-        <v>57487.26926178942</v>
+        <v>57484.13938527927</v>
       </c>
       <c r="E6" t="n">
-        <v>-168613.5051310414</v>
+        <v>-168923.4945344842</v>
       </c>
       <c r="F6" t="n">
-        <v>110396.6381363381</v>
+        <v>110086.6487328956</v>
       </c>
       <c r="G6" t="n">
-        <v>2500.822684952211</v>
+        <v>2500.822684952327</v>
       </c>
       <c r="H6" t="n">
-        <v>97948.95436153389</v>
+        <v>97948.95436153395</v>
       </c>
       <c r="I6" t="n">
-        <v>97948.95436153401</v>
+        <v>97948.95436153395</v>
       </c>
       <c r="J6" t="n">
-        <v>-55048.11114996557</v>
+        <v>-55048.11114996552</v>
       </c>
       <c r="K6" t="n">
-        <v>88442.3052210446</v>
+        <v>88442.30522104485</v>
       </c>
       <c r="L6" t="n">
-        <v>-7580.143130683166</v>
+        <v>-7580.143130683515</v>
       </c>
       <c r="M6" t="n">
-        <v>49673.9911393371</v>
+        <v>49673.99113933711</v>
       </c>
       <c r="N6" t="n">
-        <v>95802.91963785901</v>
+        <v>95802.91963785884</v>
       </c>
       <c r="O6" t="n">
-        <v>20283.23810659871</v>
+        <v>20283.23810659888</v>
       </c>
       <c r="P6" t="n">
-        <v>92532.31465793998</v>
+        <v>92532.3146579398</v>
       </c>
     </row>
   </sheetData>
@@ -26713,13 +26713,13 @@
         <v>213.488029352129</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="M2" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="N2" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="O2" t="n">
         <v>241.0121589565495</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="F3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="G3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="H3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="I3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="J3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="K3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="L3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="M3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="O3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="P3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
     </row>
     <row r="4">
@@ -26814,16 +26814,16 @@
         <v>448.9472999335579</v>
       </c>
       <c r="K4" t="n">
-        <v>448.947299933558</v>
+        <v>448.9472999335578</v>
       </c>
       <c r="L4" t="n">
-        <v>445.4304305024332</v>
+        <v>445.430430502433</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4612548573208</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4612548573208</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="O4" t="n">
         <v>350.8174849522779</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.3101645957272</v>
+        <v>119.3101645957271</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640179</v>
+        <v>94.17786475640187</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.2200490549477</v>
+        <v>120.2200490549478</v>
       </c>
       <c r="M2" t="n">
         <v>57.66116062315231</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844946</v>
+        <v>63.13094927844941</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101.1559648918172</v>
+        <v>101.1559648918171</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.35623009495714</v>
+        <v>90.35623009495737</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.3101645957272</v>
+        <v>119.3101645957271</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640179</v>
+        <v>94.17786475640187</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>155.3065696888035</v>
       </c>
       <c r="G9" t="n">
         <v>148.9622183950918</v>
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>69.9372550378137</v>
+        <v>69.51804420162362</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27974,10 +27974,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.13081250099125</v>
+        <v>31.55002333718133</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>144.7140833671753</v>
       </c>
       <c r="S9" t="n">
         <v>195.63287444794</v>
@@ -27986,10 +27986,10 @@
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>233.7255167710576</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>237.1320514842774</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
         <v>266.7045835770116</v>
@@ -28114,25 +28114,25 @@
         <v>178.141763849541</v>
       </c>
       <c r="K11" t="n">
+        <v>160.7602011037068</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
         <v>178.141763849541</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>153.9301914633259</v>
-      </c>
-      <c r="P11" t="n">
-        <v>15.10088611163704</v>
-      </c>
       <c r="Q11" t="n">
-        <v>169.8708873782849</v>
+        <v>178.141763849541</v>
       </c>
       <c r="R11" t="n">
         <v>178.141763849541</v>
@@ -28169,22 +28169,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>178.141763849541</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>53.16463259398793</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>56.43195468503674</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>107.364552236389</v>
@@ -28226,10 +28226,10 @@
         <v>178.141763849541</v>
       </c>
       <c r="V12" t="n">
+        <v>52.16287583916503</v>
+      </c>
+      <c r="W12" t="n">
         <v>178.141763849541</v>
-      </c>
-      <c r="W12" t="n">
-        <v>78.21853850077437</v>
       </c>
       <c r="X12" t="n">
         <v>178.141763849541</v>
@@ -28245,13 +28245,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.141763849541</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>170.9138915038134</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.141763849541</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28272,25 +28272,25 @@
         <v>120.241573402485</v>
       </c>
       <c r="K13" t="n">
-        <v>67.0332105846294</v>
+        <v>178.141763849541</v>
       </c>
       <c r="L13" t="n">
-        <v>32.15595010613791</v>
+        <v>178.141763849541</v>
       </c>
       <c r="M13" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N13" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="O13" t="n">
-        <v>178.141763849541</v>
+        <v>129.5703157960686</v>
       </c>
       <c r="P13" t="n">
-        <v>178.141763849541</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.141763849541</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R13" t="n">
         <v>178.141763849541</v>
@@ -28348,10 +28348,10 @@
         <v>178.141763849541</v>
       </c>
       <c r="J14" t="n">
-        <v>160.7602011037067</v>
+        <v>178.141763849541</v>
       </c>
       <c r="K14" t="n">
-        <v>178.141763849541</v>
+        <v>6.830009640380922</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28363,7 +28363,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P14" t="n">
         <v>178.141763849541</v>
@@ -28427,7 +28427,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,19 +28454,19 @@
         <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
-        <v>3.105362283807978</v>
+        <v>37.08705429154716</v>
       </c>
       <c r="T15" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="U15" t="n">
-        <v>48.74202660261139</v>
+        <v>48.7420266026114</v>
       </c>
       <c r="V15" t="n">
-        <v>164.6785343324448</v>
+        <v>178.141763849541</v>
       </c>
       <c r="W15" t="n">
-        <v>178.141763849541</v>
+        <v>78.21853850077437</v>
       </c>
       <c r="X15" t="n">
         <v>178.141763849541</v>
@@ -28482,49 +28482,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.141763849541</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>176.4949171624848</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.141763849541</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
+        <v>138.9268822184467</v>
+      </c>
+      <c r="G16" t="n">
+        <v>168.7008027322384</v>
+      </c>
+      <c r="H16" t="n">
+        <v>165.824644867158</v>
+      </c>
+      <c r="I16" t="n">
         <v>178.141763849541</v>
-      </c>
-      <c r="G16" t="n">
-        <v>178.141763849541</v>
-      </c>
-      <c r="H16" t="n">
-        <v>178.141763849541</v>
-      </c>
-      <c r="I16" t="n">
-        <v>164.8538042427314</v>
       </c>
       <c r="J16" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K16" t="n">
-        <v>67.0332105846294</v>
+        <v>178.141763849541</v>
       </c>
       <c r="L16" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="M16" t="n">
-        <v>25.22122397250158</v>
+        <v>178.141763849541</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O16" t="n">
-        <v>178.141763849541</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P16" t="n">
-        <v>178.141763849541</v>
+        <v>145.9783155347283</v>
       </c>
       <c r="Q16" t="n">
         <v>127.2193142604766</v>
@@ -28582,13 +28582,13 @@
         <v>297.4519284452682</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4519284452682</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J17" t="n">
-        <v>125.7753512480029</v>
+        <v>76.78688000567914</v>
       </c>
       <c r="K17" t="n">
-        <v>6.735077083103278</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,22 +28603,22 @@
         <v>153.9301914633259</v>
       </c>
       <c r="P17" t="n">
-        <v>15.10088611163704</v>
+        <v>203.5869311878743</v>
       </c>
       <c r="Q17" t="n">
-        <v>89.71843090037106</v>
+        <v>206.8450309186624</v>
       </c>
       <c r="R17" t="n">
+        <v>194.8854391524908</v>
+      </c>
+      <c r="S17" t="n">
+        <v>227.518407079678</v>
+      </c>
+      <c r="T17" t="n">
+        <v>222.4661527464647</v>
+      </c>
+      <c r="U17" t="n">
         <v>297.4519284452682</v>
-      </c>
-      <c r="S17" t="n">
-        <v>297.4519284452682</v>
-      </c>
-      <c r="T17" t="n">
-        <v>297.4519284452682</v>
-      </c>
-      <c r="U17" t="n">
-        <v>250.1505464515833</v>
       </c>
       <c r="V17" t="n">
         <v>297.4519284452682</v>
@@ -28646,19 +28646,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I18" t="n">
         <v>107.364552236389</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
-        <v>3.105362283807978</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T18" t="n">
-        <v>168.1903615492229</v>
+        <v>26.48501221066925</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280716788486</v>
+        <v>74.16167578579734</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -28752,13 +28752,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M19" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O19" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P19" t="n">
         <v>58.48196179900678</v>
@@ -28819,13 +28819,13 @@
         <v>297.4519284452682</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4519284452682</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2729250819164</v>
+        <v>76.78688000567914</v>
       </c>
       <c r="K20" t="n">
-        <v>123.734184005293</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28837,25 +28837,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P20" t="n">
-        <v>15.10088611163704</v>
+        <v>203.5869311878743</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.71843090037106</v>
+        <v>206.8450309186624</v>
       </c>
       <c r="R20" t="n">
         <v>194.8854391524908</v>
       </c>
       <c r="S20" t="n">
+        <v>227.518407079678</v>
+      </c>
+      <c r="T20" t="n">
+        <v>222.4661527464647</v>
+      </c>
+      <c r="U20" t="n">
         <v>297.4519284452682</v>
-      </c>
-      <c r="T20" t="n">
-        <v>297.4519284452682</v>
-      </c>
-      <c r="U20" t="n">
-        <v>250.1505464515833</v>
       </c>
       <c r="V20" t="n">
         <v>297.4519284452682</v>
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>9.764092342644631</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28922,19 +28922,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9710572869065</v>
+        <v>26.48501221066925</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280716788486</v>
+        <v>193.2279789227207</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>28.82686936323339</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.8982410577884</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28989,13 +28989,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M22" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O22" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P22" t="n">
         <v>58.48196179900678</v>
@@ -29056,13 +29056,13 @@
         <v>297.4519284452682</v>
       </c>
       <c r="I23" t="n">
-        <v>241.0121589565495</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="J23" t="n">
-        <v>76.78688000567912</v>
+        <v>232.4041607176439</v>
       </c>
       <c r="K23" t="n">
-        <v>34.04071618939065</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,22 +29077,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>203.5869311878743</v>
+        <v>15.10088611163706</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2044759766083</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R23" t="n">
         <v>297.4519284452682</v>
       </c>
       <c r="S23" t="n">
-        <v>227.518407079678</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4661527464647</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1505464515833</v>
+        <v>297.4519284452682</v>
       </c>
       <c r="V23" t="n">
         <v>297.4519284452682</v>
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29132,7 +29132,7 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>107.364552236389</v>
@@ -29159,28 +29159,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9710572869065</v>
+        <v>26.48501221066928</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V24" t="n">
-        <v>61.92696818180963</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>78.21853850077437</v>
+        <v>179.5314243310149</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.82686936323341</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29226,13 +29226,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M25" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O25" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P25" t="n">
         <v>58.48196179900678</v>
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
@@ -29396,25 +29396,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T27" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="U27" t="n">
-        <v>213.488029352129</v>
+        <v>186.9472969885916</v>
       </c>
       <c r="V27" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>68.70632630075607</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>213.488029352129</v>
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.488029352129</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>213.488029352129</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
         <v>145.1826502507107</v>
@@ -29445,16 +29445,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
+        <v>168.7008027322384</v>
+      </c>
+      <c r="H28" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="H28" t="n">
-        <v>184.4154755071004</v>
-      </c>
       <c r="I28" t="n">
-        <v>164.8538042427314</v>
+        <v>213.488029352129</v>
       </c>
       <c r="J28" t="n">
-        <v>120.241573402485</v>
+        <v>170.2239781352666</v>
       </c>
       <c r="K28" t="n">
         <v>67.0332105846294</v>
@@ -29463,13 +29463,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M28" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O28" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P28" t="n">
         <v>58.48196179900678</v>
@@ -29591,13 +29591,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29606,7 +29606,7 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7358448975026</v>
+        <v>39.60759974389849</v>
       </c>
       <c r="I30" t="n">
         <v>107.364552236389</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R30" t="n">
         <v>134.7218599774646</v>
@@ -29642,7 +29642,7 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T30" t="n">
-        <v>88.73464960754026</v>
+        <v>213.488029352129</v>
       </c>
       <c r="U30" t="n">
         <v>213.488029352129</v>
@@ -29651,7 +29651,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="W30" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>213.488029352129</v>
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>213.488029352129</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29685,28 +29685,28 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H31" t="n">
+        <v>165.824644867158</v>
+      </c>
+      <c r="I31" t="n">
+        <v>164.8538042427314</v>
+      </c>
+      <c r="J31" t="n">
+        <v>120.241573402485</v>
+      </c>
+      <c r="K31" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="I31" t="n">
-        <v>213.488029352129</v>
-      </c>
-      <c r="J31" t="n">
-        <v>188.1873141255004</v>
-      </c>
-      <c r="K31" t="n">
-        <v>67.0332105846294</v>
-      </c>
       <c r="L31" t="n">
-        <v>32.15595010613791</v>
+        <v>118.249860757441</v>
       </c>
       <c r="M31" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O31" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P31" t="n">
         <v>58.48196179900678</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3979138113495</v>
+        <v>192.2835716884554</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Q32" t="n">
-        <v>211.7960463473154</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="R32" t="n">
-        <v>194.8854391524908</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
     </row>
     <row r="33">
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446376404189</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R33" t="n">
         <v>134.7218599774646</v>
@@ -29879,22 +29879,22 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>7.467149213263809</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3979138113495</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Y33" t="n">
-        <v>166.2905883331925</v>
+        <v>214.3979138113496</v>
       </c>
     </row>
     <row r="34">
@@ -29907,25 +29907,25 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="D34" t="n">
-        <v>201.4914564580178</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>214.3979138113495</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>214.3979138113495</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H34" t="n">
-        <v>214.3979138113495</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I34" t="n">
-        <v>164.8538042427314</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="J34" t="n">
         <v>120.241573402485</v>
@@ -29937,13 +29937,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M34" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52441230575097</v>
+        <v>134.123085283325</v>
       </c>
       <c r="O34" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P34" t="n">
         <v>58.48196179900678</v>
@@ -29952,28 +29952,28 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4312113734075</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
     </row>
     <row r="35">
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="C35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="D35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="E35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="F35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="G35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="H35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="I35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="K35" t="n">
-        <v>6.735077083103278</v>
+        <v>6.735077083103292</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="R35" t="n">
-        <v>271.5115440924724</v>
+        <v>272.059074434502</v>
       </c>
       <c r="S35" t="n">
-        <v>227.518407079678</v>
+        <v>272.059074434502</v>
       </c>
       <c r="T35" t="n">
-        <v>272.0590744345018</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505464515833</v>
+        <v>254.6552704427656</v>
       </c>
       <c r="V35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="W35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="Y35" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
     </row>
     <row r="36">
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>80.05257347487192</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>122.0794174262645</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30077,13 +30077,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J36" t="n">
         <v>52.47830382393113</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>191.5914073600452</v>
@@ -30174,19 +30174,19 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M37" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O37" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P37" t="n">
         <v>58.48196179900678</v>
       </c>
       <c r="Q37" t="n">
-        <v>162.7760091952162</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R37" t="n">
         <v>203.4312113734075</v>
@@ -30198,19 +30198,19 @@
         <v>223.761677253872</v>
       </c>
       <c r="U37" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>252.6979677489078</v>
       </c>
     </row>
     <row r="38">
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="C38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="D38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="E38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="F38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="G38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="H38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="I38" t="n">
-        <v>241.0121589565495</v>
+        <v>270.5645680512924</v>
       </c>
       <c r="J38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="K38" t="n">
-        <v>267.1963319404241</v>
+        <v>267.1963319404239</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30262,10 +30262,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>168.8637616831523</v>
+        <v>272.059074434502</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0590744345018</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R38" t="n">
         <v>194.8854391524908</v>
@@ -30274,22 +30274,22 @@
         <v>227.518407079678</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4661527464647</v>
+        <v>272.059074434502</v>
       </c>
       <c r="U38" t="n">
         <v>250.1505464515833</v>
       </c>
       <c r="V38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="W38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="Y38" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
     </row>
     <row r="39">
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30314,7 +30314,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>125.7358448975026</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R39" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280716788486</v>
+        <v>68.62409421036256</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>263.9408873252949</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30393,7 +30393,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.7008027322384</v>
+        <v>177.3074384169257</v>
       </c>
       <c r="H40" t="n">
         <v>165.824644867158</v>
@@ -30411,16 +30411,16 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M40" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O40" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P40" t="n">
-        <v>94.03865673374642</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2193142604766</v>
@@ -30435,13 +30435,13 @@
         <v>223.761677253872</v>
       </c>
       <c r="U40" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="V40" t="n">
-        <v>245.1090151844499</v>
+        <v>272.059074434502</v>
       </c>
       <c r="W40" t="n">
-        <v>272.0590744345018</v>
+        <v>272.059074434502</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30487,25 +30487,25 @@
         <v>241.0121589565495</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>54.72513342713265</v>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="O41" t="n">
-        <v>241.0121589565495</v>
-      </c>
-      <c r="P41" t="n">
-        <v>100.8518532311913</v>
       </c>
       <c r="Q41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="R41" t="n">
-        <v>194.8854391524908</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="S41" t="n">
         <v>241.0121589565495</v>
@@ -30560,7 +30560,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,31 +30581,31 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423165</v>
       </c>
       <c r="R42" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.040912445004</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>213.3844803423904</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30648,19 +30648,19 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M43" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O43" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P43" t="n">
         <v>58.48196179900678</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.4397492989377</v>
+        <v>213.0601537386414</v>
       </c>
       <c r="R43" t="n">
         <v>203.4312113734075</v>
@@ -30669,7 +30669,7 @@
         <v>235.4385289329965</v>
       </c>
       <c r="T43" t="n">
-        <v>223.761677253872</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="U43" t="n">
         <v>241.0121589565495</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>241.0121589565495</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30724,16 +30724,16 @@
         <v>241.0121589565495</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="M44" t="n">
-        <v>86.76489151408896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>54.72513342713263</v>
       </c>
       <c r="P44" t="n">
         <v>241.0121589565495</v>
@@ -30745,10 +30745,10 @@
         <v>241.0121589565495</v>
       </c>
       <c r="S44" t="n">
-        <v>227.518407079678</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4661527464647</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="U44" t="n">
         <v>241.0121589565495</v>
@@ -30785,7 +30785,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446376404189</v>
@@ -30797,7 +30797,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,25 +30818,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9710572869065</v>
+        <v>72.66895012514374</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V45" t="n">
-        <v>166.8202046267095</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>241.0121589565495</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30885,13 +30885,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M46" t="n">
-        <v>25.22122397250158</v>
+        <v>128.3125451533438</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52441230575097</v>
+        <v>16.52441230575098</v>
       </c>
       <c r="O46" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028793</v>
       </c>
       <c r="P46" t="n">
         <v>58.48196179900678</v>
@@ -30903,10 +30903,10 @@
         <v>203.4312113734075</v>
       </c>
       <c r="S46" t="n">
-        <v>238.7914265712729</v>
+        <v>235.4385289329965</v>
       </c>
       <c r="T46" t="n">
-        <v>241.0121589565495</v>
+        <v>223.761677253872</v>
       </c>
       <c r="U46" t="n">
         <v>241.0121589565495</v>
@@ -30918,7 +30918,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X46" t="n">
-        <v>241.0121589565495</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H11" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I11" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K11" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L11" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M11" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N11" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O11" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P11" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R11" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S11" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T11" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I12" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J12" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N12" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O12" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P12" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R12" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S12" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T12" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431452333374772</v>
@@ -31914,10 +31914,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I13" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K13" t="n">
         <v>21.1930037920889</v>
@@ -31926,13 +31926,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P13" t="n">
         <v>22.06195011345467</v>
@@ -31941,16 +31941,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R13" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S13" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T13" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H14" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I14" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K14" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L14" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M14" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N14" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O14" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P14" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R14" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S14" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T14" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I15" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J15" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N15" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O15" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P15" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R15" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S15" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T15" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431452333374772</v>
@@ -32151,10 +32151,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I16" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K16" t="n">
         <v>21.1930037920889</v>
@@ -32163,13 +32163,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P16" t="n">
         <v>22.06195011345467</v>
@@ -32178,16 +32178,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R16" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S16" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T16" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H17" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I17" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K17" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L17" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M17" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N17" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O17" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P17" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R17" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S17" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T17" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I18" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J18" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N18" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O18" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P18" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R18" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S18" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T18" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431452333374772</v>
@@ -32388,10 +32388,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I19" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K19" t="n">
         <v>21.1930037920889</v>
@@ -32400,13 +32400,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P19" t="n">
         <v>22.06195011345467</v>
@@ -32415,16 +32415,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R19" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S19" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T19" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H20" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I20" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K20" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L20" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M20" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N20" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O20" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P20" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R20" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S20" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T20" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I21" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J21" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N21" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O21" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P21" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R21" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S21" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T21" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431452333374772</v>
@@ -32625,10 +32625,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I22" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K22" t="n">
         <v>21.1930037920889</v>
@@ -32637,13 +32637,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P22" t="n">
         <v>22.06195011345467</v>
@@ -32652,16 +32652,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R22" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S22" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T22" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H23" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I23" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K23" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L23" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M23" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N23" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O23" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P23" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R23" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S23" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T23" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I24" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J24" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N24" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O24" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P24" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R24" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S24" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T24" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431452333374772</v>
@@ -32862,10 +32862,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I25" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K25" t="n">
         <v>21.1930037920889</v>
@@ -32874,13 +32874,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P25" t="n">
         <v>22.06195011345467</v>
@@ -32889,16 +32889,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R25" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S25" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T25" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H26" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K26" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L26" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M26" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N26" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O26" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P26" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R26" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S26" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T26" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I27" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J27" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N27" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O27" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P27" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R27" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S27" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T27" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431452333374772</v>
@@ -33099,10 +33099,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I28" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K28" t="n">
         <v>21.1930037920889</v>
@@ -33111,13 +33111,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P28" t="n">
         <v>22.06195011345467</v>
@@ -33126,16 +33126,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R28" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S28" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T28" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H29" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K29" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L29" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M29" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N29" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O29" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P29" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R29" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S29" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T29" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I30" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J30" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N30" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O30" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P30" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R30" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S30" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T30" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431452333374772</v>
@@ -33336,10 +33336,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I31" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K31" t="n">
         <v>21.1930037920889</v>
@@ -33348,13 +33348,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P31" t="n">
         <v>22.06195011345467</v>
@@ -33363,16 +33363,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R31" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S31" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T31" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H32" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K32" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L32" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M32" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N32" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O32" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P32" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R32" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S32" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T32" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I33" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J33" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N33" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O33" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P33" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R33" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S33" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T33" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431452333374772</v>
@@ -33573,10 +33573,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I34" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K34" t="n">
         <v>21.1930037920889</v>
@@ -33585,13 +33585,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P34" t="n">
         <v>22.06195011345467</v>
@@ -33600,16 +33600,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R34" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S34" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T34" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H35" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K35" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L35" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M35" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N35" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O35" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P35" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R35" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S35" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T35" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I36" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J36" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N36" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O36" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P36" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R36" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S36" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T36" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431452333374772</v>
@@ -33810,10 +33810,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I37" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K37" t="n">
         <v>21.1930037920889</v>
@@ -33822,13 +33822,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P37" t="n">
         <v>22.06195011345467</v>
@@ -33837,16 +33837,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R37" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S37" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T37" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H38" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K38" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L38" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M38" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N38" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O38" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P38" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R38" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S38" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T38" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I39" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J39" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N39" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O39" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P39" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R39" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S39" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T39" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431452333374772</v>
@@ -34047,10 +34047,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I40" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K40" t="n">
         <v>21.1930037920889</v>
@@ -34059,13 +34059,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P40" t="n">
         <v>22.06195011345467</v>
@@ -34074,16 +34074,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R40" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S40" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T40" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H41" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I41" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K41" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L41" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M41" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N41" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O41" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P41" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R41" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S41" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T41" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I42" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J42" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N42" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O42" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P42" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R42" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S42" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T42" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431452333374772</v>
@@ -34284,10 +34284,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I43" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K43" t="n">
         <v>21.1930037920889</v>
@@ -34296,13 +34296,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P43" t="n">
         <v>22.06195011345467</v>
@@ -34311,16 +34311,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R43" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S43" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T43" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H44" t="n">
-        <v>4.164677489239486</v>
+        <v>4.164677489239485</v>
       </c>
       <c r="I44" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K44" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565823</v>
       </c>
       <c r="L44" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594145</v>
       </c>
       <c r="M44" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355894</v>
       </c>
       <c r="N44" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762478</v>
       </c>
       <c r="O44" t="n">
-        <v>68.51715408911019</v>
+        <v>68.51715408911018</v>
       </c>
       <c r="P44" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.91439679883908</v>
+        <v>43.91439679883907</v>
       </c>
       <c r="R44" t="n">
         <v>25.54467690305773</v>
       </c>
       <c r="S44" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T44" t="n">
         <v>1.780141653523335</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253257162349896</v>
+        <v>0.03253257162349895</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101372025394165</v>
+        <v>2.101372025394164</v>
       </c>
       <c r="I45" t="n">
-        <v>7.491267211327972</v>
+        <v>7.491267211327969</v>
       </c>
       <c r="J45" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190596</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914536</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13000086604035</v>
+        <v>55.13000086604034</v>
       </c>
       <c r="N45" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O45" t="n">
-        <v>51.76799648572081</v>
+        <v>51.7679964857208</v>
       </c>
       <c r="P45" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698052</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.7739924736929</v>
+        <v>27.77399247369289</v>
       </c>
       <c r="R45" t="n">
         <v>13.50909282083551</v>
       </c>
       <c r="S45" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T45" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809427</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431452333374772</v>
@@ -34521,10 +34521,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I46" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248052</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K46" t="n">
         <v>21.1930037920889</v>
@@ -34533,13 +34533,13 @@
         <v>27.11974835804554</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59397217425579</v>
+        <v>28.59397217425578</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P46" t="n">
         <v>22.06195011345467</v>
@@ -34548,16 +34548,16 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R46" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769302</v>
       </c>
       <c r="S46" t="n">
-        <v>3.178950568813335</v>
+        <v>3.178950568813334</v>
       </c>
       <c r="T46" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189187</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009949767038539404</v>
+        <v>0.009949767038539403</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>3.516869431124803</v>
+        <v>3.374773696533903</v>
       </c>
       <c r="N9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="O9" t="n">
-        <v>3.374773696533902</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>101.3548838438619</v>
       </c>
       <c r="K11" t="n">
-        <v>171.4066867664377</v>
+        <v>154.0251240206035</v>
       </c>
       <c r="L11" t="n">
-        <v>47.18298822124891</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M11" t="n">
-        <v>81.66780162964173</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N11" t="n">
-        <v>76.07772050874961</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4860450762372</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>163.040877737904</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.15245647791382</v>
+        <v>88.42333294916997</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L12" t="n">
         <v>118.5108989343404</v>
@@ -35541,13 +35541,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5248431845728874</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>4.456710531841027</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.95911359883027</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35568,25 +35568,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>111.1085532649116</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>145.9858137434031</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.61735154379</v>
+        <v>161.6173515437901</v>
       </c>
       <c r="O13" t="n">
-        <v>140.6589497292531</v>
+        <v>92.08750167578069</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6598020505342</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.92244958906439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>83.97332109802761</v>
+        <v>101.3548838438619</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4066867664377</v>
+        <v>0.09493255727763042</v>
       </c>
       <c r="L14" t="n">
-        <v>47.18298822124891</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M14" t="n">
-        <v>81.66780162964173</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N14" t="n">
-        <v>76.07772050874961</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O14" t="n">
-        <v>34.55585361291136</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="P14" t="n">
-        <v>163.0408777379039</v>
+        <v>163.040877737904</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294916992</v>
+        <v>88.42333294916997</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L15" t="n">
         <v>118.5108989343404</v>
@@ -35778,49 +35778,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5248431845728874</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>10.03773619051245</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.95911359883027</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.21488163109433</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>9.440961117302569</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.31711898238303</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.28795960680967</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>111.1085532649116</v>
       </c>
       <c r="L16" t="n">
         <v>145.9858137434031</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9205398770395</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6589497292531</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6598020505342</v>
+        <v>87.49635373572156</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43976948871866</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>48.98847124232373</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.18298822124891</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M17" t="n">
-        <v>81.66780162964173</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N17" t="n">
-        <v>76.07772050874961</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O17" t="n">
         <v>188.4860450762372</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>117.1266000182913</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.9335213655902</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98577569880344</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.30138199368485</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L18" t="n">
         <v>118.5108989343404</v>
@@ -35972,7 +35972,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N18" t="n">
-        <v>188.4860450762372</v>
+        <v>188.4860450762371</v>
       </c>
       <c r="O18" t="n">
         <v>133.0233611548194</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43976948871866</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>47.18298822124888</v>
+      </c>
+      <c r="M20" t="n">
+        <v>81.6678016296417</v>
+      </c>
+      <c r="N20" t="n">
+        <v>76.07772050874958</v>
+      </c>
+      <c r="O20" t="n">
         <v>188.4860450762372</v>
       </c>
-      <c r="K20" t="n">
-        <v>116.9991069221897</v>
-      </c>
-      <c r="L20" t="n">
-        <v>47.18298822124891</v>
-      </c>
-      <c r="M20" t="n">
-        <v>81.66780162964173</v>
-      </c>
-      <c r="N20" t="n">
-        <v>76.07772050874961</v>
-      </c>
-      <c r="O20" t="n">
-        <v>34.55585361291136</v>
-      </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>117.1266000182913</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.9335213655902</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98577569880344</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.30138199368485</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L21" t="n">
         <v>118.5108989343404</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>56.43976948871865</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>155.6172807119647</v>
       </c>
       <c r="K23" t="n">
-        <v>27.30563910628737</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.18298822124891</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M23" t="n">
-        <v>81.66780162964173</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874961</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O23" t="n">
-        <v>34.55585361291136</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P23" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>102.5664892927773</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.9335213655902</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.98577569880344</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>47.30138199368485</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L24" t="n">
         <v>118.5108989343404</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7011493464498</v>
+        <v>136.7011493464499</v>
       </c>
       <c r="K26" t="n">
         <v>206.7529522690257</v>
@@ -36616,7 +36616,7 @@
         <v>123.7695984517579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963814</v>
+        <v>18.60259019963817</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L27" t="n">
         <v>118.5108989343404</v>
@@ -36683,7 +36683,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O27" t="n">
         <v>133.0233611548194</v>
@@ -36726,10 +36726,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.87110868716087</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>47.03084838015661</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -36741,16 +36741,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.78722661989055</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>18.59083063994239</v>
+        <v>47.66338448497103</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.63422510939763</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>49.98240473278155</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.26871509165238</v>
+        <v>86.2687150916524</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36844,16 +36844,16 @@
         <v>289.5657498608786</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0438829650404</v>
+        <v>248.0438829650403</v>
       </c>
       <c r="P29" t="n">
-        <v>198.387143240492</v>
+        <v>198.3871432404919</v>
       </c>
       <c r="Q29" t="n">
-        <v>123.769598451758</v>
+        <v>123.7695984517579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.6025901996382</v>
+        <v>18.60259019963816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L30" t="n">
         <v>118.5108989343404</v>
@@ -36920,7 +36920,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O30" t="n">
         <v>133.0233611548194</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.30537910141831</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36981,19 +36981,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.66338448497106</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.63422510939765</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.94574072301535</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.4548187674996</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>86.09391065130305</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.6110338056704</v>
+        <v>137.6110338056705</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6628367282462</v>
+        <v>207.6628367282464</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5809020325984</v>
+        <v>239.4665599097042</v>
       </c>
       <c r="M32" t="n">
         <v>296.0657154409913</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4756343200991</v>
+        <v>290.4756343200992</v>
       </c>
       <c r="O32" t="n">
-        <v>248.9537674242609</v>
+        <v>248.953767424261</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2970276997125</v>
+        <v>199.2970276997126</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.0776154469443</v>
+        <v>124.6794829109786</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>19.51247465885881</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L33" t="n">
         <v>118.5108989343404</v>
@@ -37157,7 +37157,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O33" t="n">
         <v>133.0233611548194</v>
@@ -37203,25 +37203,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.94073283937729</v>
       </c>
       <c r="D34" t="n">
-        <v>56.30880620730706</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>75.47103159290288</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>45.69711107911112</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.57326894419157</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>49.54410956861827</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>117.5986729775741</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.96670243794217</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04691547795235</v>
+        <v>31.04691547795246</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2721944288227</v>
+        <v>195.2721944288228</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.18298822124891</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M35" t="n">
-        <v>81.66780162964173</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N35" t="n">
-        <v>76.07772050874961</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O35" t="n">
-        <v>34.55585361291136</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9581883228648</v>
+        <v>256.9581883228649</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3406435341308</v>
+        <v>182.3406435341309</v>
       </c>
       <c r="R35" t="n">
-        <v>76.62610493998153</v>
+        <v>77.17363528201113</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54066735482399</v>
       </c>
       <c r="T35" t="n">
-        <v>49.59292168803713</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>4.50472399118236</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L36" t="n">
         <v>118.5108989343404</v>
@@ -37394,7 +37394,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O36" t="n">
         <v>133.0233611548194</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.55669493473963</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37506,7 +37506,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>35.55669493473939</v>
       </c>
     </row>
     <row r="38">
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>29.55240909474292</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2721944288227</v>
+        <v>195.2721944288228</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4612548573208</v>
+        <v>260.4612548573206</v>
       </c>
       <c r="L38" t="n">
-        <v>47.18298822124891</v>
+        <v>47.18298822124888</v>
       </c>
       <c r="M38" t="n">
-        <v>81.66780162964173</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N38" t="n">
-        <v>76.07772050874961</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O38" t="n">
-        <v>34.55585361291136</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P38" t="n">
-        <v>153.7628755715153</v>
+        <v>256.9581883228649</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3406435341308</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37570,7 +37570,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59292168803724</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L39" t="n">
         <v>118.5108989343404</v>
@@ -37631,7 +37631,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O39" t="n">
         <v>133.0233611548194</v>
@@ -37689,7 +37689,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>8.606635684687342</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>35.55669493473963</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37734,7 +37734,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>26.95005925005205</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>234.2770818734462</v>
       </c>
       <c r="L41" t="n">
-        <v>47.18298822124891</v>
+        <v>288.1951471777984</v>
       </c>
       <c r="M41" t="n">
-        <v>81.66780162964173</v>
+        <v>136.3929350567743</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0898794652991</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5680125694608</v>
+        <v>34.55585361291135</v>
       </c>
       <c r="P41" t="n">
-        <v>85.75096711955428</v>
+        <v>225.9112728449124</v>
       </c>
       <c r="Q41" t="n">
         <v>151.2937280561784</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>46.12671980405866</v>
       </c>
       <c r="S41" t="n">
         <v>13.49375187687152</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L42" t="n">
         <v>118.5108989343404</v>
@@ -37868,7 +37868,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O42" t="n">
         <v>133.0233611548194</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.22043503846113</v>
+        <v>85.84083947816475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.25048170267745</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>23.87088614238107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38020,16 +38020,16 @@
         <v>234.2770818734462</v>
       </c>
       <c r="L44" t="n">
-        <v>47.18298822124891</v>
+        <v>288.1951471777984</v>
       </c>
       <c r="M44" t="n">
-        <v>168.4326931437307</v>
+        <v>81.6678016296417</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0898794652991</v>
+        <v>76.07772050874958</v>
       </c>
       <c r="O44" t="n">
-        <v>34.55585361291136</v>
+        <v>89.28098704004398</v>
       </c>
       <c r="P44" t="n">
         <v>225.9112728449124</v>
@@ -38038,13 +38038,13 @@
         <v>151.2937280561784</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12671980405867</v>
+        <v>46.12671980405866</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.49375187687152</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.54600621008477</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34143840733898</v>
+        <v>38.34143840733897</v>
       </c>
       <c r="L45" t="n">
         <v>118.5108989343404</v>
@@ -38105,7 +38105,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O45" t="n">
         <v>133.0233611548194</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.39523829158139</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>103.0913211808422</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>3.352897638276398</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>17.25048170267745</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>19.09270354830696</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
